--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_526.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_526.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32122-d243900-Reviews-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>93</t>
   </si>
   <si>
     <t>STR</t>
@@ -529,9 +538,15 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
@@ -555,79 +570,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_526.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_526.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="399">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,1108 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r585555989-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>32122</t>
+  </si>
+  <si>
+    <t>243900</t>
+  </si>
+  <si>
+    <t>585555989</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>I must admit prior to my stay I relied on the reviews to determine whether to stay or go. My family and I stayed from just June 4-June 6 (today). I must admit our stay was pleasant our room was clean and it was very, very quiet. One thing I will agree with the other reviews on were the "tweakers" or "sketchy" people. But, they have to pay their heads down some where too.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r564242041-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>564242041</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Disappointed and Upset</t>
+  </si>
+  <si>
+    <t>If I knew they were charging the price of the room PER adult, I would’ve stayed at a 4 or 5 star hotel for $114 a night! They totally ripped me off! On top of that, I checked in at 5:45pm and was told they were still cleaning rooms?!?! Isn’t normal check in at 3pm as stated. The rooms are TINY! I got both the Standard and The Double Room. Our beddings had stains and tears. The curtains have black gunk on them, and the room is soooo small they flush the bed against the air conditioner which is probably a fire hazard. This is my first and LAST experience with a Motel 6! MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Buena Park Knotts Berry Farm Disneyland, responded to this reviewResponded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2018</t>
+  </si>
+  <si>
+    <t>If I knew they were charging the price of the room PER adult, I would’ve stayed at a 4 or 5 star hotel for $114 a night! They totally ripped me off! On top of that, I checked in at 5:45pm and was told they were still cleaning rooms?!?! Isn’t normal check in at 3pm as stated. The rooms are TINY! I got both the Standard and The Double Room. Our beddings had stains and tears. The curtains have black gunk on them, and the room is soooo small they flush the bed against the air conditioner which is probably a fire hazard. This is my first and LAST experience with a Motel 6! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r546262080-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>546262080</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Descent place to stay</t>
+  </si>
+  <si>
+    <t>I would recommend this Motel 6 if you are staying in the area...good service...clean rooms...quiet...The front check in desk employees are friendly and I give a special good remarks for Daisy...She is always taking care of the quest and does her job well!!</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r518101616-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>518101616</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>good place if on budget</t>
+  </si>
+  <si>
+    <t>I needed a place for 3 nights that was not that expensive and close to Disneyland for a quick getaway. This was it. First I got charged more than what the website fee stated, not a whole lot ( I was told it is tourist season, when isn't it in California), have to give I.D.'s of ALL adults in party so they can take a picture of them( never done that in all the years of traveling), room smelled of smoke when I first opened door( asked for non smoking, found an ashtray upside down in room), beds were very hard not comfortable to sleep on, no dresser just 2 little cubbies, no micro wave or mini frig, toilet seat broken along with faucet spout,  for 3 people 2 small bars of soap( they did smell very good) no shampoo, mold outside room on side walk and in the plant areas, our keys were canceled after the first night stay and when you have spent a WHOLE day at Disneyland with a child and then you can't get into your room, that is no fun, it is easy on and off access to the freeway( if there is no construction going on),you can hear the traffic ALL night long from the freeway, the air conditioner was VERY loud ALL night long. My husband just told me it will be okay for we will not be in the room that much...I needed a place for 3 nights that was not that expensive and close to Disneyland for a quick getaway. This was it. First I got charged more than what the website fee stated, not a whole lot ( I was told it is tourist season, when isn't it in California), have to give I.D.'s of ALL adults in party so they can take a picture of them( never done that in all the years of traveling), room smelled of smoke when I first opened door( asked for non smoking, found an ashtray upside down in room), beds were very hard not comfortable to sleep on, no dresser just 2 little cubbies, no micro wave or mini frig, toilet seat broken along with faucet spout,  for 3 people 2 small bars of soap( they did smell very good) no shampoo, mold outside room on side walk and in the plant areas, our keys were canceled after the first night stay and when you have spent a WHOLE day at Disneyland with a child and then you can't get into your room, that is no fun, it is easy on and off access to the freeway( if there is no construction going on),you can hear the traffic ALL night long from the freeway, the air conditioner was VERY loud ALL night long. My husband just told me it will be okay for we will not be in the room that much and he was rightMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Expereince Team Member at Motel 6 Buena Park Knotts Berry Farm Disneyland, responded to this reviewResponded August 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2017</t>
+  </si>
+  <si>
+    <t>I needed a place for 3 nights that was not that expensive and close to Disneyland for a quick getaway. This was it. First I got charged more than what the website fee stated, not a whole lot ( I was told it is tourist season, when isn't it in California), have to give I.D.'s of ALL adults in party so they can take a picture of them( never done that in all the years of traveling), room smelled of smoke when I first opened door( asked for non smoking, found an ashtray upside down in room), beds were very hard not comfortable to sleep on, no dresser just 2 little cubbies, no micro wave or mini frig, toilet seat broken along with faucet spout,  for 3 people 2 small bars of soap( they did smell very good) no shampoo, mold outside room on side walk and in the plant areas, our keys were canceled after the first night stay and when you have spent a WHOLE day at Disneyland with a child and then you can't get into your room, that is no fun, it is easy on and off access to the freeway( if there is no construction going on),you can hear the traffic ALL night long from the freeway, the air conditioner was VERY loud ALL night long. My husband just told me it will be okay for we will not be in the room that much...I needed a place for 3 nights that was not that expensive and close to Disneyland for a quick getaway. This was it. First I got charged more than what the website fee stated, not a whole lot ( I was told it is tourist season, when isn't it in California), have to give I.D.'s of ALL adults in party so they can take a picture of them( never done that in all the years of traveling), room smelled of smoke when I first opened door( asked for non smoking, found an ashtray upside down in room), beds were very hard not comfortable to sleep on, no dresser just 2 little cubbies, no micro wave or mini frig, toilet seat broken along with faucet spout,  for 3 people 2 small bars of soap( they did smell very good) no shampoo, mold outside room on side walk and in the plant areas, our keys were canceled after the first night stay and when you have spent a WHOLE day at Disneyland with a child and then you can't get into your room, that is no fun, it is easy on and off access to the freeway( if there is no construction going on),you can hear the traffic ALL night long from the freeway, the air conditioner was VERY loud ALL night long. My husband just told me it will be okay for we will not be in the room that much and he was rightMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r512458044-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>512458044</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>Very unhappy when we get there the check-in was okay Young lady was very professional her name is Alondra Ayala however we got to the room open the door to put our belongings in. We left back out to go eat at Shakey's get back to the room and they were roaches in the room very unhappy not able to get a good night's sleep. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Buena Park Knotts Berry Farm Disneyland, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Very unhappy when we get there the check-in was okay Young lady was very professional her name is Alondra Ayala however we got to the room open the door to put our belongings in. We left back out to go eat at Shakey's get back to the room and they were roaches in the room very unhappy not able to get a good night's sleep. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r504055147-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>504055147</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Great hotel to stay at!!!</t>
+  </si>
+  <si>
+    <t>The room was clean with nothing out of place. Even though it was a smoking room, you could not tell! Daisy was absolutely incredible!!! Beautiful girl with a great personality.... what is not to like?! She was perfect in her customer serviceMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The room was clean with nothing out of place. Even though it was a smoking room, you could not tell! Daisy was absolutely incredible!!! Beautiful girl with a great personality.... what is not to like?! She was perfect in her customer serviceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r495896591-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>495896591</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cashier's </t>
+  </si>
+  <si>
+    <t>Special thanks to Arriel and Atiana for their great professional customer service. Both of them are great young ladies that will go above and beyond to accommodate your needs to the best of their abilities. Great stay always. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Special thanks to Arriel and Atiana for their great professional customer service. Both of them are great young ladies that will go above and beyond to accommodate your needs to the best of their abilities. Great stay always. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r491335547-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>491335547</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Cashier arriel and atiana</t>
+  </si>
+  <si>
+    <t>The front desk employees where awesome. Arriel and Atiana welcomed you as soon as you step inside. The stay at motel 6 was wonderful very quite very comfortable beds.yhe area around this motel is awesome very close to the 91 freeway both east and west. Food and gas stations within walking distances.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r481663761-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>481663761</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>Fixing of my home</t>
+  </si>
+  <si>
+    <t>the experience that we had at this Motel 6 was great the room locations and the room Cleanest of the room. plus the shopping centers Restaurants and amusement park was just perfect and also there are two person that we have to thanks. there are  coquese  Howard and Daisy from the MOTEL 6</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r441652401-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>441652401</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>Disneyland</t>
+  </si>
+  <si>
+    <t>Well,I was helped by a beautiful blonde at the front desk to my room upstairs.I had a interview in the morning.I still need to get a hold of my recruiter with the sophisticated words thanks to Yahoo's!hacked accounts.Thank you Ashely for the E-mail to cheer me up.The customer service was magnificent even when I called the front desk all questions answered.I recommend spa suites,and a upgrade on the rooms."Make Disneyland great again."</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r433731561-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>433731561</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>VERY NOISY, SMOKEY NON-SMOKING ROOM</t>
+  </si>
+  <si>
+    <t>Re:  Motel 6 #1053; Buena Park, CA; Room 125; Friday, October 28, 2016
+VERY NOISY, SMOKEY NON-SMOKING ROOM
+We checked into the motel in the late afternoon and dropped our luggage in our room before leaving for the evening's activities.  Our room was located at the end of a narrow inner "courtyard".  The sidewalk to our room was dirty and littered with cigarette butts.  The area smelled of urine. 
+Although the room appeared clean and had a scented air freshener smell to it when we checked in, but by the time we got back late in the evening, the air freshener had dissipated and room smelled of tobacco smoke.  That was just the beginning of discovering problems with the room.
+When we turned on the old air conditioner, it made such a racket that we couldn't even carry on a conversation in the room with it running -- no less trying to sleep with it running.  So we ended up trying to sleep on top of the bottom sheet with the blankets off to stay cooler.  
+(Examination of the air conditioner showed that the metal cover of the air conditioner had been damaged in the past and would not snap onto the air conditioner cabinet.  Instead, it dangled from the control end of the air conditioner and rattled noisily.  The loose end of the cover was gummy -- perhaps from someone trying to tape it to the cabinet earlier.  The...Re:  Motel 6 #1053; Buena Park, CA; Room 125; Friday, October 28, 2016VERY NOISY, SMOKEY NON-SMOKING ROOMWe checked into the motel in the late afternoon and dropped our luggage in our room before leaving for the evening's activities.  Our room was located at the end of a narrow inner "courtyard".  The sidewalk to our room was dirty and littered with cigarette butts.  The area smelled of urine. Although the room appeared clean and had a scented air freshener smell to it when we checked in, but by the time we got back late in the evening, the air freshener had dissipated and room smelled of tobacco smoke.  That was just the beginning of discovering problems with the room.When we turned on the old air conditioner, it made such a racket that we couldn't even carry on a conversation in the room with it running -- no less trying to sleep with it running.  So we ended up trying to sleep on top of the bottom sheet with the blankets off to stay cooler.  (Examination of the air conditioner showed that the metal cover of the air conditioner had been damaged in the past and would not snap onto the air conditioner cabinet.  Instead, it dangled from the control end of the air conditioner and rattled noisily.  The loose end of the cover was gummy -- perhaps from someone trying to tape it to the cabinet earlier.  The metal louvers in the cover were missing and had been replaced with 1/2-inch square wire mesh that had been painted white to match the cabinet, but areas of the paint had flaked off, indicating that this patch-job "repair" had been done a long time ago.)When we went to bed, the pillows reeked of cigarette smoke.  The mattress was saggy -- at least on my side of the bed.  The bedding appeared clean, but the sheets were pilled.  I was exhausted and got a few hours of sleep in the overly warm, smelly room.  My wife got almost no sleep.In the morning, with the bedspreads off the bed and the sides of the box springs exposed, I noticed that they looked very old and had major liquid stains in several places.  In retrospect, I wonder what the mattress would have looked like if we had removed the sheet.When we left, I scanned the floor under the beds to make sure we weren't for getting anything -- and I noticed that there was an accumulation of dust and debris under the beds. --This, by far, is the worst Motel 6 I have ever stayed in and it would rank in the 3 worst lodgings I have stayed in during the last 45 years or so.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Re:  Motel 6 #1053; Buena Park, CA; Room 125; Friday, October 28, 2016
+VERY NOISY, SMOKEY NON-SMOKING ROOM
+We checked into the motel in the late afternoon and dropped our luggage in our room before leaving for the evening's activities.  Our room was located at the end of a narrow inner "courtyard".  The sidewalk to our room was dirty and littered with cigarette butts.  The area smelled of urine. 
+Although the room appeared clean and had a scented air freshener smell to it when we checked in, but by the time we got back late in the evening, the air freshener had dissipated and room smelled of tobacco smoke.  That was just the beginning of discovering problems with the room.
+When we turned on the old air conditioner, it made such a racket that we couldn't even carry on a conversation in the room with it running -- no less trying to sleep with it running.  So we ended up trying to sleep on top of the bottom sheet with the blankets off to stay cooler.  
+(Examination of the air conditioner showed that the metal cover of the air conditioner had been damaged in the past and would not snap onto the air conditioner cabinet.  Instead, it dangled from the control end of the air conditioner and rattled noisily.  The loose end of the cover was gummy -- perhaps from someone trying to tape it to the cabinet earlier.  The...Re:  Motel 6 #1053; Buena Park, CA; Room 125; Friday, October 28, 2016VERY NOISY, SMOKEY NON-SMOKING ROOMWe checked into the motel in the late afternoon and dropped our luggage in our room before leaving for the evening's activities.  Our room was located at the end of a narrow inner "courtyard".  The sidewalk to our room was dirty and littered with cigarette butts.  The area smelled of urine. Although the room appeared clean and had a scented air freshener smell to it when we checked in, but by the time we got back late in the evening, the air freshener had dissipated and room smelled of tobacco smoke.  That was just the beginning of discovering problems with the room.When we turned on the old air conditioner, it made such a racket that we couldn't even carry on a conversation in the room with it running -- no less trying to sleep with it running.  So we ended up trying to sleep on top of the bottom sheet with the blankets off to stay cooler.  (Examination of the air conditioner showed that the metal cover of the air conditioner had been damaged in the past and would not snap onto the air conditioner cabinet.  Instead, it dangled from the control end of the air conditioner and rattled noisily.  The loose end of the cover was gummy -- perhaps from someone trying to tape it to the cabinet earlier.  The metal louvers in the cover were missing and had been replaced with 1/2-inch square wire mesh that had been painted white to match the cabinet, but areas of the paint had flaked off, indicating that this patch-job "repair" had been done a long time ago.)When we went to bed, the pillows reeked of cigarette smoke.  The mattress was saggy -- at least on my side of the bed.  The bedding appeared clean, but the sheets were pilled.  I was exhausted and got a few hours of sleep in the overly warm, smelly room.  My wife got almost no sleep.In the morning, with the bedspreads off the bed and the sides of the box springs exposed, I noticed that they looked very old and had major liquid stains in several places.  In retrospect, I wonder what the mattress would have looked like if we had removed the sheet.When we left, I scanned the floor under the beds to make sure we weren't for getting anything -- and I noticed that there was an accumulation of dust and debris under the beds. --This, by far, is the worst Motel 6 I have ever stayed in and it would rank in the 3 worst lodgings I have stayed in during the last 45 years or so.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r427074391-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>427074391</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Pay A Bit More...</t>
+  </si>
+  <si>
+    <t>The Motel 6 on Valley View in Buena Park is not the type of Motel 6 you might think it is. Nationwide, most Motel 6s are being renovated or have been renovated... Not this one in early October, 2016. It doesn't have the modern and clean feel that many renovated locations have.
+The floors were filthy in the room. They are the laminate hard floors, so this is inexcusable. I shouldn't be contemplating buying Swiffer when we check in. The motel acts as a landing place for people who are very in between apartments. It has a sketchy vibe to it. We never once saw security on property. The elevator at the front of the building was crusted and sticky. It was never cleaned in the 4 days we were there. The water pressure in the sink was so low that I decided to brush my teeth in the shower.
+House keeping is lacking as mentioned above, there's even a large sign advertising that they are hiring house keepers. We did speak to one house keeper, she was kind. She seemed overwhelmed. We felt bad for her.
+The location is great, and the surrounding area seems safe. Funny how you must leave the property to feel you got your money's worth and to feel a sense of security. The Starbucks across the parking lot, the ample parking, the other restaurants in the area (but not Jack in the Box-awful service),...The Motel 6 on Valley View in Buena Park is not the type of Motel 6 you might think it is. Nationwide, most Motel 6s are being renovated or have been renovated... Not this one in early October, 2016. It doesn't have the modern and clean feel that many renovated locations have.The floors were filthy in the room. They are the laminate hard floors, so this is inexcusable. I shouldn't be contemplating buying Swiffer when we check in. The motel acts as a landing place for people who are very in between apartments. It has a sketchy vibe to it. We never once saw security on property. The elevator at the front of the building was crusted and sticky. It was never cleaned in the 4 days we were there. The water pressure in the sink was so low that I decided to brush my teeth in the shower.House keeping is lacking as mentioned above, there's even a large sign advertising that they are hiring house keepers. We did speak to one house keeper, she was kind. She seemed overwhelmed. We felt bad for her.The location is great, and the surrounding area seems safe. Funny how you must leave the property to feel you got your money's worth and to feel a sense of security. The Starbucks across the parking lot, the ample parking, the other restaurants in the area (but not Jack in the Box-awful service), and the proximity to local attractions are the only reasons I give this property 2 of 5 points. This isn't the Motel 6 you're looking for.Looking back, I would have picked another hotel. This location isn't the only one in the area in that price range. I would recommend paying 5-10 dollars more per night and staying in a better motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Buena Park Knotts Berry Farm Disneyland, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>The Motel 6 on Valley View in Buena Park is not the type of Motel 6 you might think it is. Nationwide, most Motel 6s are being renovated or have been renovated... Not this one in early October, 2016. It doesn't have the modern and clean feel that many renovated locations have.
+The floors were filthy in the room. They are the laminate hard floors, so this is inexcusable. I shouldn't be contemplating buying Swiffer when we check in. The motel acts as a landing place for people who are very in between apartments. It has a sketchy vibe to it. We never once saw security on property. The elevator at the front of the building was crusted and sticky. It was never cleaned in the 4 days we were there. The water pressure in the sink was so low that I decided to brush my teeth in the shower.
+House keeping is lacking as mentioned above, there's even a large sign advertising that they are hiring house keepers. We did speak to one house keeper, she was kind. She seemed overwhelmed. We felt bad for her.
+The location is great, and the surrounding area seems safe. Funny how you must leave the property to feel you got your money's worth and to feel a sense of security. The Starbucks across the parking lot, the ample parking, the other restaurants in the area (but not Jack in the Box-awful service),...The Motel 6 on Valley View in Buena Park is not the type of Motel 6 you might think it is. Nationwide, most Motel 6s are being renovated or have been renovated... Not this one in early October, 2016. It doesn't have the modern and clean feel that many renovated locations have.The floors were filthy in the room. They are the laminate hard floors, so this is inexcusable. I shouldn't be contemplating buying Swiffer when we check in. The motel acts as a landing place for people who are very in between apartments. It has a sketchy vibe to it. We never once saw security on property. The elevator at the front of the building was crusted and sticky. It was never cleaned in the 4 days we were there. The water pressure in the sink was so low that I decided to brush my teeth in the shower.House keeping is lacking as mentioned above, there's even a large sign advertising that they are hiring house keepers. We did speak to one house keeper, she was kind. She seemed overwhelmed. We felt bad for her.The location is great, and the surrounding area seems safe. Funny how you must leave the property to feel you got your money's worth and to feel a sense of security. The Starbucks across the parking lot, the ample parking, the other restaurants in the area (but not Jack in the Box-awful service), and the proximity to local attractions are the only reasons I give this property 2 of 5 points. This isn't the Motel 6 you're looking for.Looking back, I would have picked another hotel. This location isn't the only one in the area in that price range. I would recommend paying 5-10 dollars more per night and staying in a better motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r423548731-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>423548731</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>Fun time thrill seekers👍🏻</t>
+  </si>
+  <si>
+    <t>Great change from DL and DCA, the rides here are great for those who seek thriller type rides. Fun for all ages. Plenty to do, great shows,food,water rides,children's rides, plenty of parking. Wear a hat, sunscreen, drink plenty of water and don't for get your camera. Wear comfortable shoes. Must see is the western show is superb. Have fun and enjoy your day. They also have annual passes, so much cheaper than DL or DCA.We will be back soon.Be safe &amp; have fun</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r418609411-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>418609411</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>Okay place to stay - but would rather be somewhere else</t>
+  </si>
+  <si>
+    <t>If you are staying for a short term, like 1 or 2 nights, but I would not suggest anything longer.  This motel close to the freeways, and to local attractions, which is okay for an overnight stay for weary truckers.  The rooms are neat, clean linens, but bedspreads are old and have cigarette burns in them, and even the non-smoking rooms have a bad smell, like a dirty ashtray is hidden somewhere in the room.  And that's not to mention the cockroaches that scurry when you turn the lights on at night!  This was my only choice because they allow pets, but I would search for some place else.  Motel 6 has always been one of my choices for an out of town stay, or when I have had to be out of my home to have work done on my home, but I will not come back to this location.  Even though the rooms are clean and neat, the smell, the bugs and the extremely noisy air conditioners are not worth the stay here. Sorry Motel 6, but this is not one of your better locations.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>If you are staying for a short term, like 1 or 2 nights, but I would not suggest anything longer.  This motel close to the freeways, and to local attractions, which is okay for an overnight stay for weary truckers.  The rooms are neat, clean linens, but bedspreads are old and have cigarette burns in them, and even the non-smoking rooms have a bad smell, like a dirty ashtray is hidden somewhere in the room.  And that's not to mention the cockroaches that scurry when you turn the lights on at night!  This was my only choice because they allow pets, but I would search for some place else.  Motel 6 has always been one of my choices for an out of town stay, or when I have had to be out of my home to have work done on my home, but I will not come back to this location.  Even though the rooms are clean and neat, the smell, the bugs and the extremely noisy air conditioners are not worth the stay here. Sorry Motel 6, but this is not one of your better locations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r415595356-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>415595356</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motel 6 A+++ </t>
+  </si>
+  <si>
+    <t>Hi this I'm Joe Lomas I am one of Motel 6 happy customer and as a guest to and every time I have stayed to any of the Motel 6 like in Staton and  in Whittier and know motel 6 Buena Park -Knottsberry farm. So I made a reservation I called to see if they had a room on the bottom floor which they did and it was a double bed and daisy was a awesome employee and had a great personality and next to her was Pamela these girls gave me a sense of being at home. I felt like i was part of the family and I believe as a guest it's always good to feel  like u are  part of the of the Motel 6 and they're going to be there for us and thank you Motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hi this I'm Joe Lomas I am one of Motel 6 happy customer and as a guest to and every time I have stayed to any of the Motel 6 like in Staton and  in Whittier and know motel 6 Buena Park -Knottsberry farm. So I made a reservation I called to see if they had a room on the bottom floor which they did and it was a double bed and daisy was a awesome employee and had a great personality and next to her was Pamela these girls gave me a sense of being at home. I felt like i was part of the family and I believe as a guest it's always good to feel  like u are  part of the of the Motel 6 and they're going to be there for us and thank you Motel 6.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r411199293-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>411199293</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>The rooms are small but it is surprisingly quiet here lot of people wandering around but they're friendly an OK place to stay if you need some for a day or two. There are a lot of places to eat around here it's easy to get to pretty much anything a lot of things are in within walking distance plenty of restaurants places to eat it's kept clean as far as Motel 6 is gold this is probably one of the five best ones to go</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r409058630-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>409058630</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Madduxmotors Owner</t>
+  </si>
+  <si>
+    <t>Excellent staff, got the room I wanted at a great price. Nice laundry room, clean microwave area adjacent to lobby. Clean, pleasant looking property. Needs (and deserves) flat screen TV from corporate MOTEL 6. Many other Motel 6 properties have their full upgrade, some not as nice! How come, Corporate Motel 6?</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r406418076-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>406418076</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Motel 6 was great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This location was wonderful with a full staff that was able to accommodate us in every way. I am really please with the hospitality and the location over all. I want to thank the manager  aileen and the the  receptionist named Wendy and daisy and the rest of the girls  were great . Very friendly and accommodating and very helpful. The maintenence I belived named Alfred were nice. Thank you all for ur hospitality </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r396048539-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>396048539</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible and staff was uncooperative. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was supposed to be non smoking room, yet it smelled if cigarettes.  The TV would not stay powered on.  When I reported everything to the front desk, there was no help. The front desk clerk wouldn't come to check the room. I asked to checkout and was told i wasn't eligible for a refund.  I called customer service and there was no answer.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r383424576-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>383424576</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Disneyland Trip</t>
+  </si>
+  <si>
+    <t>Arrived late at night after leaving Disneyland, about a 10 minute drive. Received an extremely warm welcome from the owner, who was very kind and helpful. The room was very clean and recently redone. The bed was fairly comfy and surprisingly NOT hard as a board. Definitely surpassed my expectations for the price. Very small pool which didn't look the cleanest, and no jacuzzi. Walls were a little thin, but if you bring earplugs you won't hear a thing. Altogether I was very pleased and would definitely return, especially to support these very kind small business owners for such a good experience!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r373183068-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>373183068</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>Big Disappointment</t>
+  </si>
+  <si>
+    <t>Frequently over my career I traveled to the same areas where customers were nearby. Whenever I had to go to SoCal (Southern California in popular parlance) I tried to split the so-called baby and choose a central location, close to appropriate freeways and in a safer part of town frankly. So it was that I returned to the convergence of Route 91 &amp; Interstate 5 next to Anaheim in Buena Park. It's a solid, hard working, blue collar neighborhood with the usual malls and such, It is also down the road a bit from Knotts Berry Farm (where I have also stayed this past year FYI) and as such sees more than its fair share of traffic, literally and figuratively. (See past review of that trip somewhere listed within the Trip Advisor history). Anyway I headed back to the same property that I had stayed at over the past 20 years, now owned by a large well known investor group from NYC. That's right folks NEW YORK CITY and it's not a funny commercial where I get to pass the salsa dip. The property was in disarray to put it mildly. The physical outside walkways to point out just one aspect of careless management or no maintenance were dirty and not at all clean. Apparently word of the bragged about updates and upgrades had not made it that far west yet - I hope. Within the ground floor room (I...Frequently over my career I traveled to the same areas where customers were nearby. Whenever I had to go to SoCal (Southern California in popular parlance) I tried to split the so-called baby and choose a central location, close to appropriate freeways and in a safer part of town frankly. So it was that I returned to the convergence of Route 91 &amp; Interstate 5 next to Anaheim in Buena Park. It's a solid, hard working, blue collar neighborhood with the usual malls and such, It is also down the road a bit from Knotts Berry Farm (where I have also stayed this past year FYI) and as such sees more than its fair share of traffic, literally and figuratively. (See past review of that trip somewhere listed within the Trip Advisor history). Anyway I headed back to the same property that I had stayed at over the past 20 years, now owned by a large well known investor group from NYC. That's right folks NEW YORK CITY and it's not a funny commercial where I get to pass the salsa dip. The property was in disarray to put it mildly. The physical outside walkways to point out just one aspect of careless management or no maintenance were dirty and not at all clean. Apparently word of the bragged about updates and upgrades had not made it that far west yet - I hope. Within the ground floor room (I had specifically asked for a third floor for noise reasons but again, nobody seems to listen to paying any customers anymore) I was shocked to se well-worn, outdated, and really not-so- terribly terrific accommodations. There was sadly not even a simple, small refrigerator to chill my water bottles in. Nothing had been recently re-painted (much less re-designed) to suggest any sort of upgrade in furnishings or structure that I could see. No new furniture and a poorly, inadequate hutch in which to hang garments. Yikes, it was pathetic. Did I mention they did away with those little packets of shampoo? Yeah, guess that didn't make the improvement plan so they're gone too. It was in short a terrible disappointment. What really irked me however was the simple fact that Motel 6 had always been a decent, inexpensive, clean, no frills, consistently sort of very dependable place to stay, sleep, shower and move on. Hold it, did I say just inexpensive? Well not anymore. Strangely the price increase must have done a leap frog over the upgrade instructions from New York. For what I paid for a different high brow brand name a few months ago on both sides of the valley the price was almost identical to this disaster. That would go double for the Knotts Berry Farm Hotel where I stayed last summer down the street. Same price and really no comparison as to room and surroundings. So, my dear reader and fellow traveler I must warn you to re-consider any notion that Motel 6 is a great deal sort of place to stay anymore at this juncture. It has elevated itself into another league price-wise for sure but without the backup or reasonable expectations of comfort, cleanliness or class. Safe travels to all this summer. So stay tuned to my tales from the Road Warrior.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>6Team, Business Experience Team Member at Motel 6 Buena Park Knotts Berry Farm Disneyland, responded to this reviewResponded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Frequently over my career I traveled to the same areas where customers were nearby. Whenever I had to go to SoCal (Southern California in popular parlance) I tried to split the so-called baby and choose a central location, close to appropriate freeways and in a safer part of town frankly. So it was that I returned to the convergence of Route 91 &amp; Interstate 5 next to Anaheim in Buena Park. It's a solid, hard working, blue collar neighborhood with the usual malls and such, It is also down the road a bit from Knotts Berry Farm (where I have also stayed this past year FYI) and as such sees more than its fair share of traffic, literally and figuratively. (See past review of that trip somewhere listed within the Trip Advisor history). Anyway I headed back to the same property that I had stayed at over the past 20 years, now owned by a large well known investor group from NYC. That's right folks NEW YORK CITY and it's not a funny commercial where I get to pass the salsa dip. The property was in disarray to put it mildly. The physical outside walkways to point out just one aspect of careless management or no maintenance were dirty and not at all clean. Apparently word of the bragged about updates and upgrades had not made it that far west yet - I hope. Within the ground floor room (I...Frequently over my career I traveled to the same areas where customers were nearby. Whenever I had to go to SoCal (Southern California in popular parlance) I tried to split the so-called baby and choose a central location, close to appropriate freeways and in a safer part of town frankly. So it was that I returned to the convergence of Route 91 &amp; Interstate 5 next to Anaheim in Buena Park. It's a solid, hard working, blue collar neighborhood with the usual malls and such, It is also down the road a bit from Knotts Berry Farm (where I have also stayed this past year FYI) and as such sees more than its fair share of traffic, literally and figuratively. (See past review of that trip somewhere listed within the Trip Advisor history). Anyway I headed back to the same property that I had stayed at over the past 20 years, now owned by a large well known investor group from NYC. That's right folks NEW YORK CITY and it's not a funny commercial where I get to pass the salsa dip. The property was in disarray to put it mildly. The physical outside walkways to point out just one aspect of careless management or no maintenance were dirty and not at all clean. Apparently word of the bragged about updates and upgrades had not made it that far west yet - I hope. Within the ground floor room (I had specifically asked for a third floor for noise reasons but again, nobody seems to listen to paying any customers anymore) I was shocked to se well-worn, outdated, and really not-so- terribly terrific accommodations. There was sadly not even a simple, small refrigerator to chill my water bottles in. Nothing had been recently re-painted (much less re-designed) to suggest any sort of upgrade in furnishings or structure that I could see. No new furniture and a poorly, inadequate hutch in which to hang garments. Yikes, it was pathetic. Did I mention they did away with those little packets of shampoo? Yeah, guess that didn't make the improvement plan so they're gone too. It was in short a terrible disappointment. What really irked me however was the simple fact that Motel 6 had always been a decent, inexpensive, clean, no frills, consistently sort of very dependable place to stay, sleep, shower and move on. Hold it, did I say just inexpensive? Well not anymore. Strangely the price increase must have done a leap frog over the upgrade instructions from New York. For what I paid for a different high brow brand name a few months ago on both sides of the valley the price was almost identical to this disaster. That would go double for the Knotts Berry Farm Hotel where I stayed last summer down the street. Same price and really no comparison as to room and surroundings. So, my dear reader and fellow traveler I must warn you to re-consider any notion that Motel 6 is a great deal sort of place to stay anymore at this juncture. It has elevated itself into another league price-wise for sure but without the backup or reasonable expectations of comfort, cleanliness or class. Safe travels to all this summer. So stay tuned to my tales from the Road Warrior.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r357609437-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>357609437</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Horrible experience!</t>
+  </si>
+  <si>
+    <t>We reserved a two night stay at this motel on Booking.com via Trip Advisor for March 9th and 10th. After checking in on March 9th, we went to Disneyland on the 10th, and upon arriving back at the motel at 2 a.m. found they had packed up our belongings and rented our room out due to the negligence of their own staff! The night manager refused to look at my phone when I tried showing her we had booked a two night reservation and tried to blame us for their mistake! So at 2 a.m. we had nowhere to go and had to drive around for an hour looking for another motel. I emailed the main headquarters with my complaint over a week ago and still have not heard back from them. I wil be contacing the BBB.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Buena Park Knotts Berry Farm Disneyland, responded to this reviewResponded April 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2016</t>
+  </si>
+  <si>
+    <t>We reserved a two night stay at this motel on Booking.com via Trip Advisor for March 9th and 10th. After checking in on March 9th, we went to Disneyland on the 10th, and upon arriving back at the motel at 2 a.m. found they had packed up our belongings and rented our room out due to the negligence of their own staff! The night manager refused to look at my phone when I tried showing her we had booked a two night reservation and tried to blame us for their mistake! So at 2 a.m. we had nowhere to go and had to drive around for an hour looking for another motel. I emailed the main headquarters with my complaint over a week ago and still have not heard back from them. I wil be contacing the BBB.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r342448789-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>342448789</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not what I expected but decent. </t>
+  </si>
+  <si>
+    <t>The Good: Hotel was clean, mostly updated. Beds were comfy and everything worked like it should. The windows being able to open was a huge advantage. Lots of food options around (Del Taco, Jack in the Box, a Mexican restaurant, sub shop, and an amazing pizza place. 15-20 minutes from Disneyland when you don't want to use the freeways, and about 15 minutes when you do use the freeways. Knott's Berry Farm was even closer but we didn't go. Target and Walmart are both about a ten minute drive away, as well as more food options. 
+The Bad: Hotel was plagued by prostitutes and drug addicts. It was loud and sketchy. My fiancée kept getting asked if he was alone and 'wanted some company.' Police were there several times. Housekeeping didn't do anything more than change the towels (even when they didn't need to be changed, and not if we asked for anything else to be done). Not even take out the trash. And while the staff was friendly, it was clear they didn't know the area well. I asked what the best way to get to Disneyland was and was told that I would have to google it because she didn't know and wouldn't bother to help us out on anything. Microwave near the office didn't work, and neither did the ice machines. We got a double room and it was extremely cramped. There was about a foot between...The Good: Hotel was clean, mostly updated. Beds were comfy and everything worked like it should. The windows being able to open was a huge advantage. Lots of food options around (Del Taco, Jack in the Box, a Mexican restaurant, sub shop, and an amazing pizza place. 15-20 minutes from Disneyland when you don't want to use the freeways, and about 15 minutes when you do use the freeways. Knott's Berry Farm was even closer but we didn't go. Target and Walmart are both about a ten minute drive away, as well as more food options. The Bad: Hotel was plagued by prostitutes and drug addicts. It was loud and sketchy. My fiancée kept getting asked if he was alone and 'wanted some company.' Police were there several times. Housekeeping didn't do anything more than change the towels (even when they didn't need to be changed, and not if we asked for anything else to be done). Not even take out the trash. And while the staff was friendly, it was clear they didn't know the area well. I asked what the best way to get to Disneyland was and was told that I would have to google it because she didn't know and wouldn't bother to help us out on anything. Microwave near the office didn't work, and neither did the ice machines. We got a double room and it was extremely cramped. There was about a foot between the beds. Overall for the normal rate I wouldn't recommend it. I booked about 6 months in advance and paid 56 bucks a night instead of the normal 99, which is why we stayed. 2.5 stars. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>The Good: Hotel was clean, mostly updated. Beds were comfy and everything worked like it should. The windows being able to open was a huge advantage. Lots of food options around (Del Taco, Jack in the Box, a Mexican restaurant, sub shop, and an amazing pizza place. 15-20 minutes from Disneyland when you don't want to use the freeways, and about 15 minutes when you do use the freeways. Knott's Berry Farm was even closer but we didn't go. Target and Walmart are both about a ten minute drive away, as well as more food options. 
+The Bad: Hotel was plagued by prostitutes and drug addicts. It was loud and sketchy. My fiancée kept getting asked if he was alone and 'wanted some company.' Police were there several times. Housekeeping didn't do anything more than change the towels (even when they didn't need to be changed, and not if we asked for anything else to be done). Not even take out the trash. And while the staff was friendly, it was clear they didn't know the area well. I asked what the best way to get to Disneyland was and was told that I would have to google it because she didn't know and wouldn't bother to help us out on anything. Microwave near the office didn't work, and neither did the ice machines. We got a double room and it was extremely cramped. There was about a foot between...The Good: Hotel was clean, mostly updated. Beds were comfy and everything worked like it should. The windows being able to open was a huge advantage. Lots of food options around (Del Taco, Jack in the Box, a Mexican restaurant, sub shop, and an amazing pizza place. 15-20 minutes from Disneyland when you don't want to use the freeways, and about 15 minutes when you do use the freeways. Knott's Berry Farm was even closer but we didn't go. Target and Walmart are both about a ten minute drive away, as well as more food options. The Bad: Hotel was plagued by prostitutes and drug addicts. It was loud and sketchy. My fiancée kept getting asked if he was alone and 'wanted some company.' Police were there several times. Housekeeping didn't do anything more than change the towels (even when they didn't need to be changed, and not if we asked for anything else to be done). Not even take out the trash. And while the staff was friendly, it was clear they didn't know the area well. I asked what the best way to get to Disneyland was and was told that I would have to google it because she didn't know and wouldn't bother to help us out on anything. Microwave near the office didn't work, and neither did the ice machines. We got a double room and it was extremely cramped. There was about a foot between the beds. Overall for the normal rate I wouldn't recommend it. I booked about 6 months in advance and paid 56 bucks a night instead of the normal 99, which is why we stayed. 2.5 stars. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r291474648-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>291474648</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>My family spent the night at the Motel 6 Buena Park on July 13, 2015. We knew that it was a Motel 6 and had no expectations for a spectacular room, but this place was DISGUSTING! The non-smoking room that we were placed in reeked of cigarette smoke so badly that it knocked you back as soon as you opened the door. The tub had black mold all over it and there was a hole in the bottom. The beds were horrible and the noise from other people in the parking lot made it difficult to sleep. It was obvious that illegal activity was taking place on the upper floors and the next morning you could see/smell the evidence of that activity. I would not stay another night in this hotel if Motel 6 gave it to me for free! I probably would not even consider staying in another Motel 6 ANYWHERE. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Buena Park Knotts Berry Farm Disneyland, responded to this reviewResponded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2015</t>
+  </si>
+  <si>
+    <t>My family spent the night at the Motel 6 Buena Park on July 13, 2015. We knew that it was a Motel 6 and had no expectations for a spectacular room, but this place was DISGUSTING! The non-smoking room that we were placed in reeked of cigarette smoke so badly that it knocked you back as soon as you opened the door. The tub had black mold all over it and there was a hole in the bottom. The beds were horrible and the noise from other people in the parking lot made it difficult to sleep. It was obvious that illegal activity was taking place on the upper floors and the next morning you could see/smell the evidence of that activity. I would not stay another night in this hotel if Motel 6 gave it to me for free! I probably would not even consider staying in another Motel 6 ANYWHERE. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r264759398-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>264759398</t>
+  </si>
+  <si>
+    <t>04/09/2015</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel 3 times in the past year and have another scheduled trip in May. Rooms are clean, staff is very accommodating. I'm female and travel alone on a regular basis, I feel safe here. Restuarants are nearby / within walking distance. Close to freeways.  Any problems I did encounter, were addressed quickly and resolved to my satisfaction.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r261507027-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>261507027</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>Great location but that's all</t>
+  </si>
+  <si>
+    <t>This Motel 6 (#1053) is close to attractions, freeways, and there are quite a few restaurants within walking distance. It has good staff and my rooms have always been clean. Unfortunately the building has become very shabby and run down. The ice machines don't work well, and the last time I stayed there the fire alarms kept going off at night. It is always hard to find a vacant machine in the guest laundry. I visit the area every few months and stayed there several times before I found a nearby motel with nicer, less expensive rooms that included extras such as refrigerators, coffee makers, breakfast, hair dryers, and free Internet.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>This Motel 6 (#1053) is close to attractions, freeways, and there are quite a few restaurants within walking distance. It has good staff and my rooms have always been clean. Unfortunately the building has become very shabby and run down. The ice machines don't work well, and the last time I stayed there the fire alarms kept going off at night. It is always hard to find a vacant machine in the guest laundry. I visit the area every few months and stayed there several times before I found a nearby motel with nicer, less expensive rooms that included extras such as refrigerators, coffee makers, breakfast, hair dryers, and free Internet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r260396906-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>260396906</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Worst Motel Ever!</t>
+  </si>
+  <si>
+    <t>Worst Motel Ever!
+I made my reservation online at motel6.com just I have always done. I arrived after the initial check-in time by 2 hours, only to be told that my room wasn’t ready, after I had already given all of my information and paid for the room. I had to wait 20 minutes which wasn’t bad but I was tired from driving and did not receive an apology for my RESERVED room not being ready. I had to remind them that I requested a non-smoking room.  When I finally was able to get into my room, I as completely shocked. I had requested a room with 2 full beds which is what I got but it was so small that the beds were almost touching. The room should have been a 1 bed room due to its size. The rooms were supposed to be updated and modern but the television was an outdated motel. The bathroom was dirty as if they had cleaned it in a hurry. I found a pubic hair on my bed so that was an indication that the bedding had not been removed and washed. The room was supposed to be non-smoking but someone had been smoking in the room and housekeeping had tried to cover the smell with cleanser. The smell was so overwhelming that I had an asthma attack. Luckily I had my inhaler in my purse. The pool did not have any...Worst Motel Ever!I made my reservation online at motel6.com just I have always done. I arrived after the initial check-in time by 2 hours, only to be told that my room wasn’t ready, after I had already given all of my information and paid for the room. I had to wait 20 minutes which wasn’t bad but I was tired from driving and did not receive an apology for my RESERVED room not being ready. I had to remind them that I requested a non-smoking room.  When I finally was able to get into my room, I as completely shocked. I had requested a room with 2 full beds which is what I got but it was so small that the beds were almost touching. The room should have been a 1 bed room due to its size. The rooms were supposed to be updated and modern but the television was an outdated motel. The bathroom was dirty as if they had cleaned it in a hurry. I found a pubic hair on my bed so that was an indication that the bedding had not been removed and washed. The room was supposed to be non-smoking but someone had been smoking in the room and housekeeping had tried to cover the smell with cleanser. The smell was so overwhelming that I had an asthma attack. Luckily I had my inhaler in my purse. The pool did not have any water in it which would have been nice to know with a posting either online or from the front desk. The door to my room would not open without pulling at it for several minutes so if a fire had happened, it would have been almost impossible to get out in time. Since I was still under my 6:00 time and had only been in the room for about 30 minutes, I put my luggage back in my car and went to the front desk, requested a refund, checked out and went to another motel. I would definitely not recommend this motel to ANYONE! Along with my problems, there were monthly “residents” living in the motel that were quite unfavorable characters. I found this out when one went in to ask for the monthly rate and then had the pleasure of observing the live-ins. Take my advice, DO NOT STAY HERE! There are other motels and hotels with the same value and much better accommodations.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Worst Motel Ever!
+I made my reservation online at motel6.com just I have always done. I arrived after the initial check-in time by 2 hours, only to be told that my room wasn’t ready, after I had already given all of my information and paid for the room. I had to wait 20 minutes which wasn’t bad but I was tired from driving and did not receive an apology for my RESERVED room not being ready. I had to remind them that I requested a non-smoking room.  When I finally was able to get into my room, I as completely shocked. I had requested a room with 2 full beds which is what I got but it was so small that the beds were almost touching. The room should have been a 1 bed room due to its size. The rooms were supposed to be updated and modern but the television was an outdated motel. The bathroom was dirty as if they had cleaned it in a hurry. I found a pubic hair on my bed so that was an indication that the bedding had not been removed and washed. The room was supposed to be non-smoking but someone had been smoking in the room and housekeeping had tried to cover the smell with cleanser. The smell was so overwhelming that I had an asthma attack. Luckily I had my inhaler in my purse. The pool did not have any...Worst Motel Ever!I made my reservation online at motel6.com just I have always done. I arrived after the initial check-in time by 2 hours, only to be told that my room wasn’t ready, after I had already given all of my information and paid for the room. I had to wait 20 minutes which wasn’t bad but I was tired from driving and did not receive an apology for my RESERVED room not being ready. I had to remind them that I requested a non-smoking room.  When I finally was able to get into my room, I as completely shocked. I had requested a room with 2 full beds which is what I got but it was so small that the beds were almost touching. The room should have been a 1 bed room due to its size. The rooms were supposed to be updated and modern but the television was an outdated motel. The bathroom was dirty as if they had cleaned it in a hurry. I found a pubic hair on my bed so that was an indication that the bedding had not been removed and washed. The room was supposed to be non-smoking but someone had been smoking in the room and housekeeping had tried to cover the smell with cleanser. The smell was so overwhelming that I had an asthma attack. Luckily I had my inhaler in my purse. The pool did not have any water in it which would have been nice to know with a posting either online or from the front desk. The door to my room would not open without pulling at it for several minutes so if a fire had happened, it would have been almost impossible to get out in time. Since I was still under my 6:00 time and had only been in the room for about 30 minutes, I put my luggage back in my car and went to the front desk, requested a refund, checked out and went to another motel. I would definitely not recommend this motel to ANYONE! Along with my problems, there were monthly “residents” living in the motel that were quite unfavorable characters. I found this out when one went in to ask for the monthly rate and then had the pleasure of observing the live-ins. Take my advice, DO NOT STAY HERE! There are other motels and hotels with the same value and much better accommodations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r230506499-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>230506499</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>There are better places for a similar price.</t>
+  </si>
+  <si>
+    <t>We felt the front desk staff was very friendly to us. However, that's about all that met us to my expectations. Our room was dirty. The tub must have had tub stickies in it at one point, because there was residual ick on the floor of the tub. There is mold on the ceiling of the bathroom as well. My kids enjoyed the pool. It was small, but it did the job. The beds are hard and uncomfortable. I found someone else's hair on my hand towel. We were told that washcloths are a commodity there as guests like to "wash their rims" with them!! Really?This location is directly adjacent to the 91 freeway. So there is a LOT of freeway noise all the time. There is also a lot of noise from other "guests" who seem to actually be living at this Motel 6. I would say find a moderately better place to stay anywhere on Beach Blvd if you plan is to go to Knott's Berry Farm. Also, stay away from motels on orangethorp , most of those places look like they rent by the hour.MoreShow less</t>
+  </si>
+  <si>
+    <t>We felt the front desk staff was very friendly to us. However, that's about all that met us to my expectations. Our room was dirty. The tub must have had tub stickies in it at one point, because there was residual ick on the floor of the tub. There is mold on the ceiling of the bathroom as well. My kids enjoyed the pool. It was small, but it did the job. The beds are hard and uncomfortable. I found someone else's hair on my hand towel. We were told that washcloths are a commodity there as guests like to "wash their rims" with them!! Really?This location is directly adjacent to the 91 freeway. So there is a LOT of freeway noise all the time. There is also a lot of noise from other "guests" who seem to actually be living at this Motel 6. I would say find a moderately better place to stay anywhere on Beach Blvd if you plan is to go to Knott's Berry Farm. Also, stay away from motels on orangethorp , most of those places look like they rent by the hour.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r223478521-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>223478521</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Needs a bit more updating</t>
+  </si>
+  <si>
+    <t>Good, not great, needs more work to bring it up to that Studio 6 level.The room was a bit small, but clean. parking is ample and near many resturants.Staff friendly and I would recommend to those off to Knotts.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r216842675-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>216842675</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Just Shocked!!</t>
+  </si>
+  <si>
+    <t>Made reservations on line. Arrived at noon just to assure I would get my room request (smoking).  WOW. The most unorganized front desk I have ever seen. Room not ready. No problem. Shop a bit, get lunch and got back at 1:30 (room still not ready).  I had items that required refrigeration/heating (had no idea these amenities were not included). Relying on a friend for transport. Went back in and told them I would take a non-smoking room.  I just simply wanted to relax. If we put you in a non-smoking room you will have to remain there!!! For the size, rate, dirty, stinky, only 5 watchable TV Channels (kidding right). Couldn't do anything but go to sleep. The only satisfaction came that evening when Brandy E. and Amanda H. could clearly see how upset I was. THEY helped mend a horrific evening for me. Will never return..MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Made reservations on line. Arrived at noon just to assure I would get my room request (smoking).  WOW. The most unorganized front desk I have ever seen. Room not ready. No problem. Shop a bit, get lunch and got back at 1:30 (room still not ready).  I had items that required refrigeration/heating (had no idea these amenities were not included). Relying on a friend for transport. Went back in and told them I would take a non-smoking room.  I just simply wanted to relax. If we put you in a non-smoking room you will have to remain there!!! For the size, rate, dirty, stinky, only 5 watchable TV Channels (kidding right). Couldn't do anything but go to sleep. The only satisfaction came that evening when Brandy E. and Amanda H. could clearly see how upset I was. THEY helped mend a horrific evening for me. Will never return..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r207434748-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>207434748</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>crap hole</t>
+  </si>
+  <si>
+    <t>This is one of the worst hotels I have stayed in. We turned down the bed to get in and it was covered in hair as if someone had shaved their head all over it. When I called down to the office they asked me to come get the sheets I refused. I should be able to expect a minimum of cleanliness.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r197415183-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>197415183</t>
+  </si>
+  <si>
+    <t>03/14/2014</t>
+  </si>
+  <si>
+    <t>Busy,busy place</t>
+  </si>
+  <si>
+    <t>Very busy all night long. You can hear people outside the door all hours if the night. Fairly clean for a motel 6. If your taller than 4 ft the shower won't work well for you...The front desk staff were very nice but the price was much higher than the typical motel 6.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r196943851-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>196943851</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>GO SOME WHERE ELSE!!!!!</t>
+  </si>
+  <si>
+    <t>The room was terrible. This was the worst Motel 6 I have ever stayed at! I have stayed at many Motel 6 over the years and have never seen one so bad!!  First of all as soon as I walked in The cigar smelled was so penetrated!.. The room smelled like their were 10 cigar smokers in there at the same time. I asked to be move to another room, my daughter has asmtha so this was not good for her!! But the front desk guy told us they were "all booked"..  Even though, 2 rooms infront of our room were not occupied!  He gave us an air freshener! (What is that going to do!?)  the smelled was so strong that we were unable to sleep!! I so regret staying here! It would of been better sleeping in my car!!  The sheets were dirty, the shower tub was plugged! Not a good area and the motel needs to be updated!!!! I will not go back and defently I will not recommend it...! Overall I give it a 1.. Because zero it's not an option!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was terrible. This was the worst Motel 6 I have ever stayed at! I have stayed at many Motel 6 over the years and have never seen one so bad!!  First of all as soon as I walked in The cigar smelled was so penetrated!.. The room smelled like their were 10 cigar smokers in there at the same time. I asked to be move to another room, my daughter has asmtha so this was not good for her!! But the front desk guy told us they were "all booked"..  Even though, 2 rooms infront of our room were not occupied!  He gave us an air freshener! (What is that going to do!?)  the smelled was so strong that we were unable to sleep!! I so regret staying here! It would of been better sleeping in my car!!  The sheets were dirty, the shower tub was plugged! Not a good area and the motel needs to be updated!!!! I will not go back and defently I will not recommend it...! Overall I give it a 1.. Because zero it's not an option!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r192260430-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>192260430</t>
+  </si>
+  <si>
+    <t>01/27/2014</t>
+  </si>
+  <si>
+    <t>Looking for good service and cleanliness, GO SOMEWHERE ELSE!!!</t>
+  </si>
+  <si>
+    <t>I've stayed at other Motel 6's and they have been good, but this was far from it. We arrived around 10:15 PM ready to get some sleep. We got into our room and it had the stale hotel smell. My youngest son used the bathroom and there was hair hanging on the on the bathroom door. When he washed his hands, the sink wouldn't drain. 
+I called the front desk and the night clerk asked me if we had used anything else in the room, as if she would have moved us to another room if we hadn't. When I told her that my other son had turned the sheets down she said, she was sorry but the hotel was booked solid. Then she said she would not be able to help us and I would need to talk to a manager in the morning. (We ended up washing our hands, faces, and brushing our teeth in the tub while sitting on the toilet. Kinda Gross.) 
+When I went to hang up my pants, there was a used plastic cup on the coat rack.
+In the morning, I went to the office and asked for the Manager and the desk clerk would not get them for me. I asked if there was a manager on site and she said there was but wouldn't call them for me. I explained that the night clerk had told me to speak to the...I've stayed at other Motel 6's and they have been good, but this was far from it. We arrived around 10:15 PM ready to get some sleep. We got into our room and it had the stale hotel smell. My youngest son used the bathroom and there was hair hanging on the on the bathroom door. When he washed his hands, the sink wouldn't drain. I called the front desk and the night clerk asked me if we had used anything else in the room, as if she would have moved us to another room if we hadn't. When I told her that my other son had turned the sheets down she said, she was sorry but the hotel was booked solid. Then she said she would not be able to help us and I would need to talk to a manager in the morning. (We ended up washing our hands, faces, and brushing our teeth in the tub while sitting on the toilet. Kinda Gross.) When I went to hang up my pants, there was a used plastic cup on the coat rack.In the morning, I went to the office and asked for the Manager and the desk clerk would not get them for me. I asked if there was a manager on site and she said there was but wouldn't call them for me. I explained that the night clerk had told me to speak to the manager and she still didn't call them for me.In the end, she refunded me $15. I needed to get on the road and didn't feel like arguing with her any longer. Needless to say, I would rather pay more than to stay at this Motel 6 again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>I've stayed at other Motel 6's and they have been good, but this was far from it. We arrived around 10:15 PM ready to get some sleep. We got into our room and it had the stale hotel smell. My youngest son used the bathroom and there was hair hanging on the on the bathroom door. When he washed his hands, the sink wouldn't drain. 
+I called the front desk and the night clerk asked me if we had used anything else in the room, as if she would have moved us to another room if we hadn't. When I told her that my other son had turned the sheets down she said, she was sorry but the hotel was booked solid. Then she said she would not be able to help us and I would need to talk to a manager in the morning. (We ended up washing our hands, faces, and brushing our teeth in the tub while sitting on the toilet. Kinda Gross.) 
+When I went to hang up my pants, there was a used plastic cup on the coat rack.
+In the morning, I went to the office and asked for the Manager and the desk clerk would not get them for me. I asked if there was a manager on site and she said there was but wouldn't call them for me. I explained that the night clerk had told me to speak to the...I've stayed at other Motel 6's and they have been good, but this was far from it. We arrived around 10:15 PM ready to get some sleep. We got into our room and it had the stale hotel smell. My youngest son used the bathroom and there was hair hanging on the on the bathroom door. When he washed his hands, the sink wouldn't drain. I called the front desk and the night clerk asked me if we had used anything else in the room, as if she would have moved us to another room if we hadn't. When I told her that my other son had turned the sheets down she said, she was sorry but the hotel was booked solid. Then she said she would not be able to help us and I would need to talk to a manager in the morning. (We ended up washing our hands, faces, and brushing our teeth in the tub while sitting on the toilet. Kinda Gross.) When I went to hang up my pants, there was a used plastic cup on the coat rack.In the morning, I went to the office and asked for the Manager and the desk clerk would not get them for me. I asked if there was a manager on site and she said there was but wouldn't call them for me. I explained that the night clerk had told me to speak to the manager and she still didn't call them for me.In the end, she refunded me $15. I needed to get on the road and didn't feel like arguing with her any longer. Needless to say, I would rather pay more than to stay at this Motel 6 again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r186871346-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>186871346</t>
+  </si>
+  <si>
+    <t>12/05/2013</t>
+  </si>
+  <si>
+    <t>Friendly staff and clean rooms</t>
+  </si>
+  <si>
+    <t>We come back to the same place every year. The staff if friendly and the rooms are clean. The regular guests are always courteous to the travelers. The front desk always tries to accommodate our special room requests.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r177962086-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>177962086</t>
+  </si>
+  <si>
+    <t>09/20/2013</t>
+  </si>
+  <si>
+    <t>OK for the night</t>
+  </si>
+  <si>
+    <t>Forget getting any ice starting Friday afternoon until Monday afternoon. Slow internet that loses connection more than it should, especially since it's not free. Try to get a room away from the stairs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Motel6, Owner at Motel 6 Buena Park Knotts Berry Farm Disneyland, responded to this reviewResponded September 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2013</t>
+  </si>
+  <si>
+    <t>Forget getting any ice starting Friday afternoon until Monday afternoon. Slow internet that loses connection more than it should, especially since it's not free. Try to get a room away from the stairs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r168231871-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>168231871</t>
+  </si>
+  <si>
+    <t>07/19/2013</t>
+  </si>
+  <si>
+    <t>Horrible Experience</t>
+  </si>
+  <si>
+    <t>Well I'm not sure there were a few things people sitting on steps talking for hours very loud the drug deals going on and the police trying to catch them at it or the stomping across the ceiling while trying to sleep.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r167854794-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>167854794</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>Stay at the one in Stanton instead! Cleaner, Friendlier, and Cheaper!</t>
+  </si>
+  <si>
+    <t>This place is a serious joke. The manager Daniel or David, I believe, Has NO idea how to run a business. The service was terrible and the rooms are dirty. There are burn marks in the sheets and on the floor. If you want extra pillows or blankets, You have to walk to the front desk yourself. The manager should honestly be replaced because he is beyond rude and was very childish when confronted about poor service. The one in Stanton is much cleaner and was $15 cheaper for the same day and was way more convieniently located by more restaurant choices. Highly recommend Stanton over Buena Park.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r167683709-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>167683709</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Don't do it</t>
+  </si>
+  <si>
+    <t>Your front desk staff was wonderful.  The motel itself was frightening.  There was a fight in the parking lot when we arrived.  We, being myself and my 12 year old daughter.  I went to get ice and was approached by a woman asking to use my cell phone to call "Ed to bring flour." Obviously there is not cake baking apparatus, let alone a coffee machine in any room. The smell of marijuana was permeating.  People weren't just smoking it in their rooms, but outside and with their doors open. Even after your loudspeaker announcement which was comparable to being on a cell block stating that people shouldn't be loitering if they weren't residents, people remained outside smoking and wandering about.  I was charged $30 for my stay, even though I left after two hours, didn't turn down a bed or use anything in the room.  Tom Bodett may leave the lights on, but as far as I'm concerned; lights out!  I should have been refunded my entire couple hours stay.  Not only for the hotel being frightening; but for the fact I then had to find somewhere else to stay at 11:00 pm.  If you need a place to stay with a pet or on a restricted budget, honestly you are better off at a KOA.MoreShow less</t>
+  </si>
+  <si>
+    <t>Your front desk staff was wonderful.  The motel itself was frightening.  There was a fight in the parking lot when we arrived.  We, being myself and my 12 year old daughter.  I went to get ice and was approached by a woman asking to use my cell phone to call "Ed to bring flour." Obviously there is not cake baking apparatus, let alone a coffee machine in any room. The smell of marijuana was permeating.  People weren't just smoking it in their rooms, but outside and with their doors open. Even after your loudspeaker announcement which was comparable to being on a cell block stating that people shouldn't be loitering if they weren't residents, people remained outside smoking and wandering about.  I was charged $30 for my stay, even though I left after two hours, didn't turn down a bed or use anything in the room.  Tom Bodett may leave the lights on, but as far as I'm concerned; lights out!  I should have been refunded my entire couple hours stay.  Not only for the hotel being frightening; but for the fact I then had to find somewhere else to stay at 11:00 pm.  If you need a place to stay with a pet or on a restricted budget, honestly you are better off at a KOA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r159977354-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>159977354</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>perfectly adequate for a short stay</t>
+  </si>
+  <si>
+    <t>The front desk was on a charm offensive when we stayed. First we were offered chocolate and then received a phone call in the room to make sure everything was OK. It was! For the money, it was excellent. Clean and comfortable, even though the room was on the small side. Excellent value  for money. No complaints. My advice is to check in early for the best room.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r152758928-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>152758928</t>
+  </si>
+  <si>
+    <t>02/21/2013</t>
+  </si>
+  <si>
+    <t>Staff was Wonderful</t>
+  </si>
+  <si>
+    <t>I've stayed at this property a few times. Staff is always friendly and courteous and the room is always clean. My greatest complaint with many lower-priced motels is that non-smoking rooms aren't really non-smoking, having heavily shampooed carpeting but the lingering smoke-damage from guests who ignore their policies is hard to ignore. This Motel 6 did not have that problem. It's also fully handicap-equipped, elevator and checkin is invariably quick and efficient. It's not always easy to run an establishment that caters to the budget-minded but they do their job exceptionally well.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r149029634-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>149029634</t>
+  </si>
+  <si>
+    <t>01/06/2013</t>
+  </si>
+  <si>
+    <t>Ehhh</t>
+  </si>
+  <si>
+    <t>This hotel is right of of the interstate so ask for a room not facing the freeway.  We had to move rooms as the first room stunk.  They allow pets here, but they do not clean the rooms properly afterward and the smell is very strong.  Also, as people walk their pets early in the morning we were woken up by barking dogs.  I am a pet lover and have several of my own, but you need to know what your in for.  While we were there a women left the motel because she had fleas in her room. (Luckily, this was not one of our problems.) The room was OK, but not totally clean.  There was a bug in the light switch in the bathroom and the room smelled musty.  I personally would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>This hotel is right of of the interstate so ask for a room not facing the freeway.  We had to move rooms as the first room stunk.  They allow pets here, but they do not clean the rooms properly afterward and the smell is very strong.  Also, as people walk their pets early in the morning we were woken up by barking dogs.  I am a pet lover and have several of my own, but you need to know what your in for.  While we were there a women left the motel because she had fleas in her room. (Luckily, this was not one of our problems.) The room was OK, but not totally clean.  There was a bug in the light switch in the bathroom and the room smelled musty.  I personally would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r124698199-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>124698199</t>
+  </si>
+  <si>
+    <t>02/16/2012</t>
+  </si>
+  <si>
+    <t>Pretty much what I expected.</t>
+  </si>
+  <si>
+    <t>I stayed at this property in March of 2011.  I was overdue for some kind of vacation and a friend of mine was temporarily living in Buena Park.  She generously offered to let me stay a few nights with her and she was staying at this location while looking for a permenant place to live. 
+The room was clean and in good repair.  The pillows were very flat and the comforter was very thin, not what I would normally prefer. There was enough counter space for all my toiletries and hers.   There was a Jack In The Box next to the property, this made breakfast easy.  There was a Target nearby, which was a lifesaver since I forgot to bring something I needed.  I never felt unsafe at any time.  My friend picked me up from LAX and did all the driving, but as far as I remember it was probably 20 minutes to Disneyland.  It is definitely not fancy, but on a tight budget it was suitable and I got a much needed weekend away.  It also helps to live near an airport that offers budget direct flights to LAX, and a friend who qualifies for the southern California resident rates at Disney!  Next time I would prefer staying on the resort property or adjacent to it so we can go back to the room to rest during the afternoon. I also recommend to anyone with seasonal allergies to...I stayed at this property in March of 2011.  I was overdue for some kind of vacation and a friend of mine was temporarily living in Buena Park.  She generously offered to let me stay a few nights with her and she was staying at this location while looking for a permenant place to live. The room was clean and in good repair.  The pillows were very flat and the comforter was very thin, not what I would normally prefer. There was enough counter space for all my toiletries and hers.   There was a Jack In The Box next to the property, this made breakfast easy.  There was a Target nearby, which was a lifesaver since I forgot to bring something I needed.  I never felt unsafe at any time.  My friend picked me up from LAX and did all the driving, but as far as I remember it was probably 20 minutes to Disneyland.  It is definitely not fancy, but on a tight budget it was suitable and I got a much needed weekend away.  It also helps to live near an airport that offers budget direct flights to LAX, and a friend who qualifies for the southern California resident rates at Disney!  Next time I would prefer staying on the resort property or adjacent to it so we can go back to the room to rest during the afternoon. I also recommend to anyone with seasonal allergies to make sure and pack your preferred medications!  When I got there, the pollen was just as bad as it was at home in Oregon.  And I had a difficult time finding the appropriate medication at Disney.  Once I did it was considerably more expensive.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>I stayed at this property in March of 2011.  I was overdue for some kind of vacation and a friend of mine was temporarily living in Buena Park.  She generously offered to let me stay a few nights with her and she was staying at this location while looking for a permenant place to live. 
+The room was clean and in good repair.  The pillows were very flat and the comforter was very thin, not what I would normally prefer. There was enough counter space for all my toiletries and hers.   There was a Jack In The Box next to the property, this made breakfast easy.  There was a Target nearby, which was a lifesaver since I forgot to bring something I needed.  I never felt unsafe at any time.  My friend picked me up from LAX and did all the driving, but as far as I remember it was probably 20 minutes to Disneyland.  It is definitely not fancy, but on a tight budget it was suitable and I got a much needed weekend away.  It also helps to live near an airport that offers budget direct flights to LAX, and a friend who qualifies for the southern California resident rates at Disney!  Next time I would prefer staying on the resort property or adjacent to it so we can go back to the room to rest during the afternoon. I also recommend to anyone with seasonal allergies to...I stayed at this property in March of 2011.  I was overdue for some kind of vacation and a friend of mine was temporarily living in Buena Park.  She generously offered to let me stay a few nights with her and she was staying at this location while looking for a permenant place to live. The room was clean and in good repair.  The pillows were very flat and the comforter was very thin, not what I would normally prefer. There was enough counter space for all my toiletries and hers.   There was a Jack In The Box next to the property, this made breakfast easy.  There was a Target nearby, which was a lifesaver since I forgot to bring something I needed.  I never felt unsafe at any time.  My friend picked me up from LAX and did all the driving, but as far as I remember it was probably 20 minutes to Disneyland.  It is definitely not fancy, but on a tight budget it was suitable and I got a much needed weekend away.  It also helps to live near an airport that offers budget direct flights to LAX, and a friend who qualifies for the southern California resident rates at Disney!  Next time I would prefer staying on the resort property or adjacent to it so we can go back to the room to rest during the afternoon. I also recommend to anyone with seasonal allergies to make sure and pack your preferred medications!  When I got there, the pollen was just as bad as it was at home in Oregon.  And I had a difficult time finding the appropriate medication at Disney.  Once I did it was considerably more expensive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r123674827-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>123674827</t>
+  </si>
+  <si>
+    <t>01/26/2012</t>
+  </si>
+  <si>
+    <t>Value for money</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights in a double room. We found it very clean, friendly staff, nothing special really. There was an odd smell in the room that didn't go away- I put it down to the "pet-friendly" policy. OK for the price.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r122740670-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>122740670</t>
+  </si>
+  <si>
+    <t>01/07/2012</t>
+  </si>
+  <si>
+    <t>For $50 I shouldnt complain but.....</t>
+  </si>
+  <si>
+    <t>Check in was a breeze the gal at the front desk was very helpful. We needed 2 rooms 1 smoking 1 non smoking at check in there were no smoking rooms ready so the gal at the front desk told us it would be about an hour and radioed the house keeper and asked her to get one smoking rooms ready for us as we were about 2 hours early. As soon as we walked into our non smoking room there was a strong smell of wet dog mixed with animal urine but after being in the room a little bit the smell diminished.The bathroom was clean and bright but also had a dank smell and the shower had low water pressure compared to my parents room. I was surprised that they charged for Wi-Fi as I thought that was a standard feature in hotels now a days. For January the weather was a beautiful 85 degrees but our AC unit only blew room temperature air. While inspecting the AC unit I found that something had chewed thru the power cord leaving exposed wire less than a foot from my kids bed. As soon as i wiggled the cord it sparked and popped the breaker.Both rooms had a clean and neat appearance but everything was old and worn. At some point one of the long term tenet threw there bedding into the the walkway and it was left there for...Check in was a breeze the gal at the front desk was very helpful. We needed 2 rooms 1 smoking 1 non smoking at check in there were no smoking rooms ready so the gal at the front desk told us it would be about an hour and radioed the house keeper and asked her to get one smoking rooms ready for us as we were about 2 hours early. As soon as we walked into our non smoking room there was a strong smell of wet dog mixed with animal urine but after being in the room a little bit the smell diminished.The bathroom was clean and bright but also had a dank smell and the shower had low water pressure compared to my parents room. I was surprised that they charged for Wi-Fi as I thought that was a standard feature in hotels now a days. For January the weather was a beautiful 85 degrees but our AC unit only blew room temperature air. While inspecting the AC unit I found that something had chewed thru the power cord leaving exposed wire less than a foot from my kids bed. As soon as i wiggled the cord it sparked and popped the breaker.Both rooms had a clean and neat appearance but everything was old and worn. At some point one of the long term tenet threw there bedding into the the walkway and it was left there for a couple of hours.The pros of this hotel is it is a convenient location for getting to Knotts Berry Farm and other tourist  locations and there are no less than 6 different restaurants within a block and easy freeway access and tons of parking.I believe this is a pet friendly motel as i saw a cat setting in a window and there were signs telling people where to take there pets to use the bathroom.  Ive paid a lot more for a lot less and for this reason I would probably stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Check in was a breeze the gal at the front desk was very helpful. We needed 2 rooms 1 smoking 1 non smoking at check in there were no smoking rooms ready so the gal at the front desk told us it would be about an hour and radioed the house keeper and asked her to get one smoking rooms ready for us as we were about 2 hours early. As soon as we walked into our non smoking room there was a strong smell of wet dog mixed with animal urine but after being in the room a little bit the smell diminished.The bathroom was clean and bright but also had a dank smell and the shower had low water pressure compared to my parents room. I was surprised that they charged for Wi-Fi as I thought that was a standard feature in hotels now a days. For January the weather was a beautiful 85 degrees but our AC unit only blew room temperature air. While inspecting the AC unit I found that something had chewed thru the power cord leaving exposed wire less than a foot from my kids bed. As soon as i wiggled the cord it sparked and popped the breaker.Both rooms had a clean and neat appearance but everything was old and worn. At some point one of the long term tenet threw there bedding into the the walkway and it was left there for...Check in was a breeze the gal at the front desk was very helpful. We needed 2 rooms 1 smoking 1 non smoking at check in there were no smoking rooms ready so the gal at the front desk told us it would be about an hour and radioed the house keeper and asked her to get one smoking rooms ready for us as we were about 2 hours early. As soon as we walked into our non smoking room there was a strong smell of wet dog mixed with animal urine but after being in the room a little bit the smell diminished.The bathroom was clean and bright but also had a dank smell and the shower had low water pressure compared to my parents room. I was surprised that they charged for Wi-Fi as I thought that was a standard feature in hotels now a days. For January the weather was a beautiful 85 degrees but our AC unit only blew room temperature air. While inspecting the AC unit I found that something had chewed thru the power cord leaving exposed wire less than a foot from my kids bed. As soon as i wiggled the cord it sparked and popped the breaker.Both rooms had a clean and neat appearance but everything was old and worn. At some point one of the long term tenet threw there bedding into the the walkway and it was left there for a couple of hours.The pros of this hotel is it is a convenient location for getting to Knotts Berry Farm and other tourist  locations and there are no less than 6 different restaurants within a block and easy freeway access and tons of parking.I believe this is a pet friendly motel as i saw a cat setting in a window and there were signs telling people where to take there pets to use the bathroom.  Ive paid a lot more for a lot less and for this reason I would probably stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r115779855-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>115779855</t>
+  </si>
+  <si>
+    <t>07/25/2011</t>
+  </si>
+  <si>
+    <t>DISGUSTING...GROSS...NEVER EVER AGAIN!!!!!!</t>
+  </si>
+  <si>
+    <t>Reserved non smoking but as soon as we opened the door it reeked of cigarette and urine. The carpet was filthy as were the walls. Everything was outdated and grungy. The walkways were filthy and there were cigarette buttts evrywhere. The long term guest were hanging out all over the premises. People sitting on the stairs smoking and didn't bother to move as we were carrying our luggage upstairs to the 2nd floor. It was extremely loud at nigt with people yelling and stomping up and down the hallways. Last time I checked the time before I went to sleep it was 3:30 am and i was up by 6:00 am getting the family ready so we could check out.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Reserved non smoking but as soon as we opened the door it reeked of cigarette and urine. The carpet was filthy as were the walls. Everything was outdated and grungy. The walkways were filthy and there were cigarette buttts evrywhere. The long term guest were hanging out all over the premises. People sitting on the stairs smoking and didn't bother to move as we were carrying our luggage upstairs to the 2nd floor. It was extremely loud at nigt with people yelling and stomping up and down the hallways. Last time I checked the time before I went to sleep it was 3:30 am and i was up by 6:00 am getting the family ready so we could check out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r114970488-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>114970488</t>
+  </si>
+  <si>
+    <t>07/02/2011</t>
+  </si>
+  <si>
+    <t>Not really that close to Disneyland</t>
+  </si>
+  <si>
+    <t>Yes, you get what you pay for and for $50 a night I suppose it was fine.  No roaches on our visit.  The "nonsmoking room" had the nonsmoking sign on the door, but an ashtray in the room and smelled very perfumey.  But not stale smoky.   We got used to the smell.  Very cramped, but all we needed was a place to sleep.  On another site this came up as very close to Disneyland.  Perhaps as the bird flies.  It took 30 minutes to drive there.  30 minutes to drive, 10 minutes to check in, etc put us in our room almost an hour after we left the park.  We were just too tired for that much extra time.  I wish we'd stayed closer.  On the upside, there is a security guard and a Starbucks on the way to Disneyland in the morning.   And, of course, the towels were very... exfoliating.   Expected for a budget place.  But I'll try to find a different bargain hotel next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>Yes, you get what you pay for and for $50 a night I suppose it was fine.  No roaches on our visit.  The "nonsmoking room" had the nonsmoking sign on the door, but an ashtray in the room and smelled very perfumey.  But not stale smoky.   We got used to the smell.  Very cramped, but all we needed was a place to sleep.  On another site this came up as very close to Disneyland.  Perhaps as the bird flies.  It took 30 minutes to drive there.  30 minutes to drive, 10 minutes to check in, etc put us in our room almost an hour after we left the park.  We were just too tired for that much extra time.  I wish we'd stayed closer.  On the upside, there is a security guard and a Starbucks on the way to Disneyland in the morning.   And, of course, the towels were very... exfoliating.   Expected for a budget place.  But I'll try to find a different bargain hotel next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r45849957-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>45849957</t>
+  </si>
+  <si>
+    <t>10/04/2009</t>
+  </si>
+  <si>
+    <t>Roaches</t>
+  </si>
+  <si>
+    <t>Room was pretty cramped and the carpeting looked really dirty.  It looked so dirty, that I made sure my shoes were by the bedside in case I needed to get up in the middle of the night.  The shower head was extremely low and there was no way to adjust it.  We were locked out of our room two times in a stay that lasted from 10/1/09 - 10/3/09.  The night of 10/3/09 I saw a roach on the headboard.  That was it, I checked out.  There was no way I could sleep like that.  Ugh.  When we checked out the night shift manager admitted to knowing of the roach infestation, especially on the 1st floor, which is where I was.  I'm so disgusted that this place is fully aware of this infestation and continues to take money from customers and rent roach infested rooms.  I'd never stay here ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>Room was pretty cramped and the carpeting looked really dirty.  It looked so dirty, that I made sure my shoes were by the bedside in case I needed to get up in the middle of the night.  The shower head was extremely low and there was no way to adjust it.  We were locked out of our room two times in a stay that lasted from 10/1/09 - 10/3/09.  The night of 10/3/09 I saw a roach on the headboard.  That was it, I checked out.  There was no way I could sleep like that.  Ugh.  When we checked out the night shift manager admitted to knowing of the roach infestation, especially on the 1st floor, which is where I was.  I'm so disgusted that this place is fully aware of this infestation and continues to take money from customers and rent roach infested rooms.  I'd never stay here ever again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r21410875-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>21410875</t>
+  </si>
+  <si>
+    <t>10/30/2008</t>
+  </si>
+  <si>
+    <t>At your own risk</t>
+  </si>
+  <si>
+    <t>We spent 1 night at the Buena Park, CA Motel 6 and that was more than enough. The main problem were the cockroaches. I managed to kill all I found and only hope none got in our luggage.The carpet in the traffic areas had not been maintained - cleaned or even swept - there were footprints leading from the door to the bed indicating someone had stepped in something - looked like oil - and tracked it in. The edges of the carpet were thick with accumulated dust and dirt.The bathroom was clean, however, the stool leaked and periodically flushed itself -all night.Our room was very noisy and I would recommend asking for a room away from the elevator, vending and ice machines.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>We spent 1 night at the Buena Park, CA Motel 6 and that was more than enough. The main problem were the cockroaches. I managed to kill all I found and only hope none got in our luggage.The carpet in the traffic areas had not been maintained - cleaned or even swept - there were footprints leading from the door to the bed indicating someone had stepped in something - looked like oil - and tracked it in. The edges of the carpet were thick with accumulated dust and dirt.The bathroom was clean, however, the stool leaked and periodically flushed itself -all night.Our room was very noisy and I would recommend asking for a room away from the elevator, vending and ice machines.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r14657508-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>14657508</t>
+  </si>
+  <si>
+    <t>03/30/2008</t>
+  </si>
+  <si>
+    <t>unexpected surprise</t>
+  </si>
+  <si>
+    <t>You get what you pay for. It's a typical motel 6 room which is small but efficient. There were a few problems with this hotel. The long term residents were a little noisy, and we saw two roaches in our room. Also, the bathroom shower head was designed for someone very short and there was no way to reposition it.</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r8260950-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>8260950</t>
+  </si>
+  <si>
+    <t>07/29/2007</t>
+  </si>
+  <si>
+    <t>convenient, clean, get what you pay for</t>
+  </si>
+  <si>
+    <t>you get what you pay for here. stayed to be near knotts berry farm. when we got there it was really hot inside the room. took 24 hours to cool off, no other rooms available on first floor so we stuck it out. we also had problems with room key being disabled; it was on the second evening of a two-evening stay. we'd come back from knotts berry farm hot and tired only to find we were locked out. pool is fairly small and got crowded fast. they do not police the "kids must be accompanied by adults" rule, so lots of parents just watched from their rooms (which means the kids got out of hand fast). but all in all we'd stay there again for the price and convenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>you get what you pay for here. stayed to be near knotts berry farm. when we got there it was really hot inside the room. took 24 hours to cool off, no other rooms available on first floor so we stuck it out. we also had problems with room key being disabled; it was on the second evening of a two-evening stay. we'd come back from knotts berry farm hot and tired only to find we were locked out. pool is fairly small and got crowded fast. they do not police the "kids must be accompanied by adults" rule, so lots of parents just watched from their rooms (which means the kids got out of hand fast). but all in all we'd stay there again for the price and convenience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r5448350-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>5448350</t>
+  </si>
+  <si>
+    <t>07/09/2006</t>
+  </si>
+  <si>
+    <t>Cheap, pretty clean, allow pets.</t>
+  </si>
+  <si>
+    <t>We stayed at the Motel 6 in Buena Park from July 3-8, 2006. We were visiting Disneyland on our way down the coast for the purpose of moving. Since the trip was not originally intended as a vacation, we were excited to find that we could stay at the Motel 6 for less than $50/night, thus allowing us to see Disneyland. The cost is the best thing about this place. Second best was the fact that it is 8 miles from Disney. Though it is a bit farther than we would have liked, we were able to get to the park early, leave midday and come back in the evening. 
+Our room was relatively clean. We didn't use the blanket or comforter because they didn't look all that fresh, but the sheets were clean. Bathroom had recently been "renovated" and thus was acceptable. Since we were moving, we had our dog with us and the fact that he could stay with us for no additional charge was a big plus. 
+The location of this particular Motel 6 seemed relatively safe. I did see a Buena Park police car cruise the parking lot on two occasions, but it didn't appear that they were stopping, just performing regular patrol. There is a Jack In the Box and an El Toritos in the same parking lot. The JITB was a bit sketchy but we did eat at El Toritos one night. 
+The hotel...We stayed at the Motel 6 in Buena Park from July 3-8, 2006. We were visiting Disneyland on our way down the coast for the purpose of moving. Since the trip was not originally intended as a vacation, we were excited to find that we could stay at the Motel 6 for less than $50/night, thus allowing us to see Disneyland. The cost is the best thing about this place. Second best was the fact that it is 8 miles from Disney. Though it is a bit farther than we would have liked, we were able to get to the park early, leave midday and come back in the evening. Our room was relatively clean. We didn't use the blanket or comforter because they didn't look all that fresh, but the sheets were clean. Bathroom had recently been "renovated" and thus was acceptable. Since we were moving, we had our dog with us and the fact that he could stay with us for no additional charge was a big plus. The location of this particular Motel 6 seemed relatively safe. I did see a Buena Park police car cruise the parking lot on two occasions, but it didn't appear that they were stopping, just performing regular patrol. There is a Jack In the Box and an El Toritos in the same parking lot. The JITB was a bit sketchy but we did eat at El Toritos one night. The hotel is directly off of the 91, so noise could be a problem in the outward facing rooms, but not in ours which faced the interior of the hotel and the pool. We did not use the pool because it was very cloudy looking and there were lots of kids in it. If cloudy, kid filled pools don't bother you, bring your own beach towels. They don't provide any and I'm sure they'll be useful in place of the room towels provided which are very small and thin. Overall, I'd recommend this Motel 6 for budget travelers who aren't looking for anything more than a place to sleep and for pet owners traveling in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Motel 6 in Buena Park from July 3-8, 2006. We were visiting Disneyland on our way down the coast for the purpose of moving. Since the trip was not originally intended as a vacation, we were excited to find that we could stay at the Motel 6 for less than $50/night, thus allowing us to see Disneyland. The cost is the best thing about this place. Second best was the fact that it is 8 miles from Disney. Though it is a bit farther than we would have liked, we were able to get to the park early, leave midday and come back in the evening. 
+Our room was relatively clean. We didn't use the blanket or comforter because they didn't look all that fresh, but the sheets were clean. Bathroom had recently been "renovated" and thus was acceptable. Since we were moving, we had our dog with us and the fact that he could stay with us for no additional charge was a big plus. 
+The location of this particular Motel 6 seemed relatively safe. I did see a Buena Park police car cruise the parking lot on two occasions, but it didn't appear that they were stopping, just performing regular patrol. There is a Jack In the Box and an El Toritos in the same parking lot. The JITB was a bit sketchy but we did eat at El Toritos one night. 
+The hotel...We stayed at the Motel 6 in Buena Park from July 3-8, 2006. We were visiting Disneyland on our way down the coast for the purpose of moving. Since the trip was not originally intended as a vacation, we were excited to find that we could stay at the Motel 6 for less than $50/night, thus allowing us to see Disneyland. The cost is the best thing about this place. Second best was the fact that it is 8 miles from Disney. Though it is a bit farther than we would have liked, we were able to get to the park early, leave midday and come back in the evening. Our room was relatively clean. We didn't use the blanket or comforter because they didn't look all that fresh, but the sheets were clean. Bathroom had recently been "renovated" and thus was acceptable. Since we were moving, we had our dog with us and the fact that he could stay with us for no additional charge was a big plus. The location of this particular Motel 6 seemed relatively safe. I did see a Buena Park police car cruise the parking lot on two occasions, but it didn't appear that they were stopping, just performing regular patrol. There is a Jack In the Box and an El Toritos in the same parking lot. The JITB was a bit sketchy but we did eat at El Toritos one night. The hotel is directly off of the 91, so noise could be a problem in the outward facing rooms, but not in ours which faced the interior of the hotel and the pool. We did not use the pool because it was very cloudy looking and there were lots of kids in it. If cloudy, kid filled pools don't bother you, bring your own beach towels. They don't provide any and I'm sure they'll be useful in place of the room towels provided which are very small and thin. Overall, I'd recommend this Motel 6 for budget travelers who aren't looking for anything more than a place to sleep and for pet owners traveling in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r4147253-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
+  </si>
+  <si>
+    <t>4147253</t>
+  </si>
+  <si>
+    <t>11/27/2005</t>
+  </si>
+  <si>
+    <t>Eh...</t>
+  </si>
+  <si>
+    <t>Although the room was clean, the hotel staff was very rude. We booked a non-smoking double bedroom in advance and even though I had my print-out that specifically said it had been reserved, they said I reserved it incorrectly, so I was stuck with four people in tiny room with one bedroom and one double bed. Staff was rude, but room was clean. I guess for 48 bucks you get what you pay for.</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1747,3277 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>84</v>
+      </c>
+      <c r="X8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>119</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>185</v>
+      </c>
+      <c r="O22" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>186</v>
+      </c>
+      <c r="X22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>195</v>
+      </c>
+      <c r="X23" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L24" t="s">
+        <v>202</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>203</v>
+      </c>
+      <c r="O24" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s">
+        <v>208</v>
+      </c>
+      <c r="L25" t="s">
+        <v>209</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>210</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>211</v>
+      </c>
+      <c r="X25" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>215</v>
+      </c>
+      <c r="J26" t="s">
+        <v>216</v>
+      </c>
+      <c r="K26" t="s">
+        <v>217</v>
+      </c>
+      <c r="L26" t="s">
+        <v>218</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O26" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" t="s">
+        <v>223</v>
+      </c>
+      <c r="L27" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>225</v>
+      </c>
+      <c r="O27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28" t="s">
+        <v>229</v>
+      </c>
+      <c r="K28" t="s">
+        <v>230</v>
+      </c>
+      <c r="L28" t="s">
+        <v>231</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>232</v>
+      </c>
+      <c r="O28" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>234</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" t="s">
+        <v>237</v>
+      </c>
+      <c r="L29" t="s">
+        <v>238</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" t="s">
+        <v>243</v>
+      </c>
+      <c r="L30" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>245</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>247</v>
+      </c>
+      <c r="J31" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" t="s">
+        <v>250</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>251</v>
+      </c>
+      <c r="O31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" t="s">
+        <v>256</v>
+      </c>
+      <c r="L32" t="s">
+        <v>257</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>258</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>260</v>
+      </c>
+      <c r="J33" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" t="s">
+        <v>263</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>265</v>
+      </c>
+      <c r="J34" t="s">
+        <v>266</v>
+      </c>
+      <c r="K34" t="s">
+        <v>267</v>
+      </c>
+      <c r="L34" t="s">
+        <v>268</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>270</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>271</v>
+      </c>
+      <c r="J35" t="s">
+        <v>272</v>
+      </c>
+      <c r="K35" t="s">
+        <v>273</v>
+      </c>
+      <c r="L35" t="s">
+        <v>274</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>275</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>277</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>278</v>
+      </c>
+      <c r="J36" t="s">
+        <v>279</v>
+      </c>
+      <c r="K36" t="s">
+        <v>280</v>
+      </c>
+      <c r="L36" t="s">
+        <v>281</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>282</v>
+      </c>
+      <c r="O36" t="s">
+        <v>93</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>283</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>284</v>
+      </c>
+      <c r="J37" t="s">
+        <v>285</v>
+      </c>
+      <c r="K37" t="s">
+        <v>286</v>
+      </c>
+      <c r="L37" t="s">
+        <v>287</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>282</v>
+      </c>
+      <c r="O37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>288</v>
+      </c>
+      <c r="X37" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>291</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>292</v>
+      </c>
+      <c r="J38" t="s">
+        <v>293</v>
+      </c>
+      <c r="K38" t="s">
+        <v>294</v>
+      </c>
+      <c r="L38" t="s">
+        <v>295</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>296</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>297</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>298</v>
+      </c>
+      <c r="J39" t="s">
+        <v>299</v>
+      </c>
+      <c r="K39" t="s">
+        <v>300</v>
+      </c>
+      <c r="L39" t="s">
+        <v>301</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>302</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>303</v>
+      </c>
+      <c r="J40" t="s">
+        <v>304</v>
+      </c>
+      <c r="K40" t="s">
+        <v>305</v>
+      </c>
+      <c r="L40" t="s">
+        <v>306</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>296</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>308</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>309</v>
+      </c>
+      <c r="J41" t="s">
+        <v>310</v>
+      </c>
+      <c r="K41" t="s">
+        <v>311</v>
+      </c>
+      <c r="L41" t="s">
+        <v>312</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>313</v>
+      </c>
+      <c r="O41" t="s">
+        <v>83</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>314</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>315</v>
+      </c>
+      <c r="J42" t="s">
+        <v>316</v>
+      </c>
+      <c r="K42" t="s">
+        <v>317</v>
+      </c>
+      <c r="L42" t="s">
+        <v>318</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>319</v>
+      </c>
+      <c r="O42" t="s">
+        <v>101</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>320</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>321</v>
+      </c>
+      <c r="J43" t="s">
+        <v>322</v>
+      </c>
+      <c r="K43" t="s">
+        <v>323</v>
+      </c>
+      <c r="L43" t="s">
+        <v>324</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>325</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>327</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>328</v>
+      </c>
+      <c r="J44" t="s">
+        <v>329</v>
+      </c>
+      <c r="K44" t="s">
+        <v>330</v>
+      </c>
+      <c r="L44" t="s">
+        <v>331</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>332</v>
+      </c>
+      <c r="O44" t="s">
+        <v>93</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>334</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>335</v>
+      </c>
+      <c r="J45" t="s">
+        <v>336</v>
+      </c>
+      <c r="K45" t="s">
+        <v>337</v>
+      </c>
+      <c r="L45" t="s">
+        <v>338</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>339</v>
+      </c>
+      <c r="O45" t="s">
+        <v>83</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>340</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>341</v>
+      </c>
+      <c r="J46" t="s">
+        <v>342</v>
+      </c>
+      <c r="K46" t="s">
+        <v>343</v>
+      </c>
+      <c r="L46" t="s">
+        <v>344</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>345</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>347</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>348</v>
+      </c>
+      <c r="J47" t="s">
+        <v>349</v>
+      </c>
+      <c r="K47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L47" t="s">
+        <v>351</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>352</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>354</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>355</v>
+      </c>
+      <c r="J48" t="s">
+        <v>356</v>
+      </c>
+      <c r="K48" t="s">
+        <v>357</v>
+      </c>
+      <c r="L48" t="s">
+        <v>358</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>359</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>361</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>362</v>
+      </c>
+      <c r="J49" t="s">
+        <v>363</v>
+      </c>
+      <c r="K49" t="s">
+        <v>364</v>
+      </c>
+      <c r="L49" t="s">
+        <v>365</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>366</v>
+      </c>
+      <c r="O49" t="s">
+        <v>83</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>368</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>369</v>
+      </c>
+      <c r="J50" t="s">
+        <v>370</v>
+      </c>
+      <c r="K50" t="s">
+        <v>371</v>
+      </c>
+      <c r="L50" t="s">
+        <v>372</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>373</v>
+      </c>
+      <c r="O50" t="s">
+        <v>83</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>375</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>376</v>
+      </c>
+      <c r="J51" t="s">
+        <v>377</v>
+      </c>
+      <c r="K51" t="s">
+        <v>378</v>
+      </c>
+      <c r="L51" t="s">
+        <v>379</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>380</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>381</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>382</v>
+      </c>
+      <c r="J52" t="s">
+        <v>383</v>
+      </c>
+      <c r="K52" t="s">
+        <v>384</v>
+      </c>
+      <c r="L52" t="s">
+        <v>385</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>386</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>388</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>389</v>
+      </c>
+      <c r="J53" t="s">
+        <v>390</v>
+      </c>
+      <c r="K53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L53" t="s">
+        <v>392</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>26344</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>394</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>395</v>
+      </c>
+      <c r="J54" t="s">
+        <v>396</v>
+      </c>
+      <c r="K54" t="s">
+        <v>397</v>
+      </c>
+      <c r="L54" t="s">
+        <v>398</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_526.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_526.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="452">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>GingerCabais</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r564242041-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>If I knew they were charging the price of the room PER adult, I would’ve stayed at a 4 or 5 star hotel for $114 a night! They totally ripped me off! On top of that, I checked in at 5:45pm and was told they were still cleaning rooms?!?! Isn’t normal check in at 3pm as stated. The rooms are TINY! I got both the Standard and The Double Room. Our beddings had stains and tears. The curtains have black gunk on them, and the room is soooo small they flush the bed against the air conditioner which is probably a fire hazard. This is my first and LAST experience with a Motel 6! More</t>
   </si>
   <si>
+    <t>blueyes888</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r546262080-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>catsmarty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r518101616-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>I needed a place for 3 nights that was not that expensive and close to Disneyland for a quick getaway. This was it. First I got charged more than what the website fee stated, not a whole lot ( I was told it is tourist season, when isn't it in California), have to give I.D.'s of ALL adults in party so they can take a picture of them( never done that in all the years of traveling), room smelled of smoke when I first opened door( asked for non smoking, found an ashtray upside down in room), beds were very hard not comfortable to sleep on, no dresser just 2 little cubbies, no micro wave or mini frig, toilet seat broken along with faucet spout,  for 3 people 2 small bars of soap( they did smell very good) no shampoo, mold outside room on side walk and in the plant areas, our keys were canceled after the first night stay and when you have spent a WHOLE day at Disneyland with a child and then you can't get into your room, that is no fun, it is easy on and off access to the freeway( if there is no construction going on),you can hear the traffic ALL night long from the freeway, the air conditioner was VERY loud ALL night long. My husband just told me it will be okay for we will not be in the room that much...I needed a place for 3 nights that was not that expensive and close to Disneyland for a quick getaway. This was it. First I got charged more than what the website fee stated, not a whole lot ( I was told it is tourist season, when isn't it in California), have to give I.D.'s of ALL adults in party so they can take a picture of them( never done that in all the years of traveling), room smelled of smoke when I first opened door( asked for non smoking, found an ashtray upside down in room), beds were very hard not comfortable to sleep on, no dresser just 2 little cubbies, no micro wave or mini frig, toilet seat broken along with faucet spout,  for 3 people 2 small bars of soap( they did smell very good) no shampoo, mold outside room on side walk and in the plant areas, our keys were canceled after the first night stay and when you have spent a WHOLE day at Disneyland with a child and then you can't get into your room, that is no fun, it is easy on and off access to the freeway( if there is no construction going on),you can hear the traffic ALL night long from the freeway, the air conditioner was VERY loud ALL night long. My husband just told me it will be okay for we will not be in the room that much and he was rightMore</t>
   </si>
   <si>
+    <t>Wanda M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r512458044-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -279,6 +294,9 @@
     <t>Very unhappy when we get there the check-in was okay Young lady was very professional her name is Alondra Ayala however we got to the room open the door to put our belongings in. We left back out to go eat at Shakey's get back to the room and they were roaches in the room very unhappy not able to get a good night's sleep. More</t>
   </si>
   <si>
+    <t>ddrlasvegas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r504055147-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>The room was clean with nothing out of place. Even though it was a smoking room, you could not tell! Daisy was absolutely incredible!!! Beautiful girl with a great personality.... what is not to like?! She was perfect in her customer serviceMore</t>
   </si>
   <si>
+    <t>Kevin J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r495896591-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -327,6 +348,9 @@
     <t>Special thanks to Arriel and Atiana for their great professional customer service. Both of them are great young ladies that will go above and beyond to accommodate your needs to the best of their abilities. Great stay always. More</t>
   </si>
   <si>
+    <t>ariel8782017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r491335547-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -342,6 +366,9 @@
     <t>The front desk employees where awesome. Arriel and Atiana welcomed you as soon as you step inside. The stay at motel 6 was wonderful very quite very comfortable beds.yhe area around this motel is awesome very close to the 91 freeway both east and west. Food and gas stations within walking distances.</t>
   </si>
   <si>
+    <t>Samuel E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r481663761-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -360,6 +387,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Anthony B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r441652401-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -376,6 +406,9 @@
   </si>
   <si>
     <t>June 2016</t>
+  </si>
+  <si>
+    <t>jiminalaska2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r433731561-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
@@ -409,6 +442,9 @@
 (Examination of the air conditioner showed that the metal cover of the air conditioner had been damaged in the past and would not snap onto the air conditioner cabinet.  Instead, it dangled from the control end of the air conditioner and rattled noisily.  The loose end of the cover was gummy -- perhaps from someone trying to tape it to the cabinet earlier.  The...Re:  Motel 6 #1053; Buena Park, CA; Room 125; Friday, October 28, 2016VERY NOISY, SMOKEY NON-SMOKING ROOMWe checked into the motel in the late afternoon and dropped our luggage in our room before leaving for the evening's activities.  Our room was located at the end of a narrow inner "courtyard".  The sidewalk to our room was dirty and littered with cigarette butts.  The area smelled of urine. Although the room appeared clean and had a scented air freshener smell to it when we checked in, but by the time we got back late in the evening, the air freshener had dissipated and room smelled of tobacco smoke.  That was just the beginning of discovering problems with the room.When we turned on the old air conditioner, it made such a racket that we couldn't even carry on a conversation in the room with it running -- no less trying to sleep with it running.  So we ended up trying to sleep on top of the bottom sheet with the blankets off to stay cooler.  (Examination of the air conditioner showed that the metal cover of the air conditioner had been damaged in the past and would not snap onto the air conditioner cabinet.  Instead, it dangled from the control end of the air conditioner and rattled noisily.  The loose end of the cover was gummy -- perhaps from someone trying to tape it to the cabinet earlier.  The metal louvers in the cover were missing and had been replaced with 1/2-inch square wire mesh that had been painted white to match the cabinet, but areas of the paint had flaked off, indicating that this patch-job "repair" had been done a long time ago.)When we went to bed, the pillows reeked of cigarette smoke.  The mattress was saggy -- at least on my side of the bed.  The bedding appeared clean, but the sheets were pilled.  I was exhausted and got a few hours of sleep in the overly warm, smelly room.  My wife got almost no sleep.In the morning, with the bedspreads off the bed and the sides of the box springs exposed, I noticed that they looked very old and had major liquid stains in several places.  In retrospect, I wonder what the mattress would have looked like if we had removed the sheet.When we left, I scanned the floor under the beds to make sure we weren't for getting anything -- and I noticed that there was an accumulation of dust and debris under the beds. --This, by far, is the worst Motel 6 I have ever stayed in and it would rank in the 3 worst lodgings I have stayed in during the last 45 years or so.More</t>
   </si>
   <si>
+    <t>JayMazz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r427074391-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -439,6 +475,9 @@
 The location is great, and the surrounding area seems safe. Funny how you must leave the property to feel you got your money's worth and to feel a sense of security. The Starbucks across the parking lot, the ample parking, the other restaurants in the area (but not Jack in the Box-awful service),...The Motel 6 on Valley View in Buena Park is not the type of Motel 6 you might think it is. Nationwide, most Motel 6s are being renovated or have been renovated... Not this one in early October, 2016. It doesn't have the modern and clean feel that many renovated locations have.The floors were filthy in the room. They are the laminate hard floors, so this is inexcusable. I shouldn't be contemplating buying Swiffer when we check in. The motel acts as a landing place for people who are very in between apartments. It has a sketchy vibe to it. We never once saw security on property. The elevator at the front of the building was crusted and sticky. It was never cleaned in the 4 days we were there. The water pressure in the sink was so low that I decided to brush my teeth in the shower.House keeping is lacking as mentioned above, there's even a large sign advertising that they are hiring house keepers. We did speak to one house keeper, she was kind. She seemed overwhelmed. We felt bad for her.The location is great, and the surrounding area seems safe. Funny how you must leave the property to feel you got your money's worth and to feel a sense of security. The Starbucks across the parking lot, the ample parking, the other restaurants in the area (but not Jack in the Box-awful service), and the proximity to local attractions are the only reasons I give this property 2 of 5 points. This isn't the Motel 6 you're looking for.Looking back, I would have picked another hotel. This location isn't the only one in the area in that price range. I would recommend paying 5-10 dollars more per night and staying in a better motel.More</t>
   </si>
   <si>
+    <t>WSJSS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r423548731-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -457,6 +496,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>charlottesl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r418609411-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -478,6 +520,9 @@
     <t>If you are staying for a short term, like 1 or 2 nights, but I would not suggest anything longer.  This motel close to the freeways, and to local attractions, which is okay for an overnight stay for weary truckers.  The rooms are neat, clean linens, but bedspreads are old and have cigarette burns in them, and even the non-smoking rooms have a bad smell, like a dirty ashtray is hidden somewhere in the room.  And that's not to mention the cockroaches that scurry when you turn the lights on at night!  This was my only choice because they allow pets, but I would search for some place else.  Motel 6 has always been one of my choices for an out of town stay, or when I have had to be out of my home to have work done on my home, but I will not come back to this location.  Even though the rooms are clean and neat, the smell, the bugs and the extremely noisy air conditioners are not worth the stay here. Sorry Motel 6, but this is not one of your better locations.More</t>
   </si>
   <si>
+    <t>Joe L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r415595356-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -496,6 +541,9 @@
     <t>Hi this I'm Joe Lomas I am one of Motel 6 happy customer and as a guest to and every time I have stayed to any of the Motel 6 like in Staton and  in Whittier and know motel 6 Buena Park -Knottsberry farm. So I made a reservation I called to see if they had a room on the bottom floor which they did and it was a double bed and daisy was a awesome employee and had a great personality and next to her was Pamela these girls gave me a sense of being at home. I felt like i was part of the family and I believe as a guest it's always good to feel  like u are  part of the of the Motel 6 and they're going to be there for us and thank you Motel 6.More</t>
   </si>
   <si>
+    <t>Mad957</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r411199293-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -511,6 +559,9 @@
     <t>The rooms are small but it is surprisingly quiet here lot of people wandering around but they're friendly an OK place to stay if you need some for a day or two. There are a lot of places to eat around here it's easy to get to pretty much anything a lot of things are in within walking distance plenty of restaurants places to eat it's kept clean as far as Motel 6 is gold this is probably one of the five best ones to go</t>
   </si>
   <si>
+    <t>Madduxmotors M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r409058630-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -526,6 +577,9 @@
     <t>Excellent staff, got the room I wanted at a great price. Nice laundry room, clean microwave area adjacent to lobby. Clean, pleasant looking property. Needs (and deserves) flat screen TV from corporate MOTEL 6. Many other Motel 6 properties have their full upgrade, some not as nice! How come, Corporate Motel 6?</t>
   </si>
   <si>
+    <t>jessikuh951</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r406418076-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -544,6 +598,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Leta B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r396048539-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -559,6 +616,9 @@
     <t xml:space="preserve">Room was supposed to be non smoking room, yet it smelled if cigarettes.  The TV would not stay powered on.  When I reported everything to the front desk, there was no help. The front desk clerk wouldn't come to check the room. I asked to checkout and was told i wasn't eligible for a refund.  I called customer service and there was no answer.  </t>
   </si>
   <si>
+    <t>Ariel B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r383424576-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -574,6 +634,9 @@
     <t>Arrived late at night after leaving Disneyland, about a 10 minute drive. Received an extremely warm welcome from the owner, who was very kind and helpful. The room was very clean and recently redone. The bed was fairly comfy and surprisingly NOT hard as a board. Definitely surpassed my expectations for the price. Very small pool which didn't look the cleanest, and no jacuzzi. Walls were a little thin, but if you bring earplugs you won't hear a thing. Altogether I was very pleased and would definitely return, especially to support these very kind small business owners for such a good experience!</t>
   </si>
   <si>
+    <t>Terrence D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r373183068-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -601,6 +664,9 @@
     <t>Frequently over my career I traveled to the same areas where customers were nearby. Whenever I had to go to SoCal (Southern California in popular parlance) I tried to split the so-called baby and choose a central location, close to appropriate freeways and in a safer part of town frankly. So it was that I returned to the convergence of Route 91 &amp; Interstate 5 next to Anaheim in Buena Park. It's a solid, hard working, blue collar neighborhood with the usual malls and such, It is also down the road a bit from Knotts Berry Farm (where I have also stayed this past year FYI) and as such sees more than its fair share of traffic, literally and figuratively. (See past review of that trip somewhere listed within the Trip Advisor history). Anyway I headed back to the same property that I had stayed at over the past 20 years, now owned by a large well known investor group from NYC. That's right folks NEW YORK CITY and it's not a funny commercial where I get to pass the salsa dip. The property was in disarray to put it mildly. The physical outside walkways to point out just one aspect of careless management or no maintenance were dirty and not at all clean. Apparently word of the bragged about updates and upgrades had not made it that far west yet - I hope. Within the ground floor room (I...Frequently over my career I traveled to the same areas where customers were nearby. Whenever I had to go to SoCal (Southern California in popular parlance) I tried to split the so-called baby and choose a central location, close to appropriate freeways and in a safer part of town frankly. So it was that I returned to the convergence of Route 91 &amp; Interstate 5 next to Anaheim in Buena Park. It's a solid, hard working, blue collar neighborhood with the usual malls and such, It is also down the road a bit from Knotts Berry Farm (where I have also stayed this past year FYI) and as such sees more than its fair share of traffic, literally and figuratively. (See past review of that trip somewhere listed within the Trip Advisor history). Anyway I headed back to the same property that I had stayed at over the past 20 years, now owned by a large well known investor group from NYC. That's right folks NEW YORK CITY and it's not a funny commercial where I get to pass the salsa dip. The property was in disarray to put it mildly. The physical outside walkways to point out just one aspect of careless management or no maintenance were dirty and not at all clean. Apparently word of the bragged about updates and upgrades had not made it that far west yet - I hope. Within the ground floor room (I had specifically asked for a third floor for noise reasons but again, nobody seems to listen to paying any customers anymore) I was shocked to se well-worn, outdated, and really not-so- terribly terrific accommodations. There was sadly not even a simple, small refrigerator to chill my water bottles in. Nothing had been recently re-painted (much less re-designed) to suggest any sort of upgrade in furnishings or structure that I could see. No new furniture and a poorly, inadequate hutch in which to hang garments. Yikes, it was pathetic. Did I mention they did away with those little packets of shampoo? Yeah, guess that didn't make the improvement plan so they're gone too. It was in short a terrible disappointment. What really irked me however was the simple fact that Motel 6 had always been a decent, inexpensive, clean, no frills, consistently sort of very dependable place to stay, sleep, shower and move on. Hold it, did I say just inexpensive? Well not anymore. Strangely the price increase must have done a leap frog over the upgrade instructions from New York. For what I paid for a different high brow brand name a few months ago on both sides of the valley the price was almost identical to this disaster. That would go double for the Knotts Berry Farm Hotel where I stayed last summer down the street. Same price and really no comparison as to room and surroundings. So, my dear reader and fellow traveler I must warn you to re-consider any notion that Motel 6 is a great deal sort of place to stay anymore at this juncture. It has elevated itself into another league price-wise for sure but without the backup or reasonable expectations of comfort, cleanliness or class. Safe travels to all this summer. So stay tuned to my tales from the Road Warrior.More</t>
   </si>
   <si>
+    <t>KarinaRivCab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r357609437-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -626,6 +692,9 @@
   </si>
   <si>
     <t>We reserved a two night stay at this motel on Booking.com via Trip Advisor for March 9th and 10th. After checking in on March 9th, we went to Disneyland on the 10th, and upon arriving back at the motel at 2 a.m. found they had packed up our belongings and rented our room out due to the negligence of their own staff! The night manager refused to look at my phone when I tried showing her we had booked a two night reservation and tried to blame us for their mistake! So at 2 a.m. we had nowhere to go and had to drive around for an hour looking for another motel. I emailed the main headquarters with my complaint over a week ago and still have not heard back from them. I wil be contacing the BBB.More</t>
+  </si>
+  <si>
+    <t>CaptainAmerica0707</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r342448789-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
@@ -651,6 +720,9 @@
 The Bad: Hotel was plagued by prostitutes and drug addicts. It was loud and sketchy. My fiancée kept getting asked if he was alone and 'wanted some company.' Police were there several times. Housekeeping didn't do anything more than change the towels (even when they didn't need to be changed, and not if we asked for anything else to be done). Not even take out the trash. And while the staff was friendly, it was clear they didn't know the area well. I asked what the best way to get to Disneyland was and was told that I would have to google it because she didn't know and wouldn't bother to help us out on anything. Microwave near the office didn't work, and neither did the ice machines. We got a double room and it was extremely cramped. There was about a foot between...The Good: Hotel was clean, mostly updated. Beds were comfy and everything worked like it should. The windows being able to open was a huge advantage. Lots of food options around (Del Taco, Jack in the Box, a Mexican restaurant, sub shop, and an amazing pizza place. 15-20 minutes from Disneyland when you don't want to use the freeways, and about 15 minutes when you do use the freeways. Knott's Berry Farm was even closer but we didn't go. Target and Walmart are both about a ten minute drive away, as well as more food options. The Bad: Hotel was plagued by prostitutes and drug addicts. It was loud and sketchy. My fiancée kept getting asked if he was alone and 'wanted some company.' Police were there several times. Housekeeping didn't do anything more than change the towels (even when they didn't need to be changed, and not if we asked for anything else to be done). Not even take out the trash. And while the staff was friendly, it was clear they didn't know the area well. I asked what the best way to get to Disneyland was and was told that I would have to google it because she didn't know and wouldn't bother to help us out on anything. Microwave near the office didn't work, and neither did the ice machines. We got a double room and it was extremely cramped. There was about a foot between the beds. Overall for the normal rate I wouldn't recommend it. I booked about 6 months in advance and paid 56 bucks a night instead of the normal 99, which is why we stayed. 2.5 stars. More</t>
   </si>
   <si>
+    <t>Shea P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r291474648-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -678,6 +750,9 @@
     <t>My family spent the night at the Motel 6 Buena Park on July 13, 2015. We knew that it was a Motel 6 and had no expectations for a spectacular room, but this place was DISGUSTING! The non-smoking room that we were placed in reeked of cigarette smoke so badly that it knocked you back as soon as you opened the door. The tub had black mold all over it and there was a hole in the bottom. The beds were horrible and the noise from other people in the parking lot made it difficult to sleep. It was obvious that illegal activity was taking place on the upper floors and the next morning you could see/smell the evidence of that activity. I would not stay another night in this hotel if Motel 6 gave it to me for free! I probably would not even consider staying in another Motel 6 ANYWHERE. More</t>
   </si>
   <si>
+    <t>Justfortoni</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r264759398-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -696,6 +771,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>wandra2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r261507027-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -715,6 +793,9 @@
   </si>
   <si>
     <t>This Motel 6 (#1053) is close to attractions, freeways, and there are quite a few restaurants within walking distance. It has good staff and my rooms have always been clean. Unfortunately the building has become very shabby and run down. The ice machines don't work well, and the last time I stayed there the fire alarms kept going off at night. It is always hard to find a vacant machine in the guest laundry. I visit the area every few months and stayed there several times before I found a nearby motel with nicer, less expensive rooms that included extras such as refrigerators, coffee makers, breakfast, hair dryers, and free Internet.More</t>
+  </si>
+  <si>
+    <t>travelicon50</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r260396906-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
@@ -740,6 +821,9 @@
 I made my reservation online at motel6.com just I have always done. I arrived after the initial check-in time by 2 hours, only to be told that my room wasn’t ready, after I had already given all of my information and paid for the room. I had to wait 20 minutes which wasn’t bad but I was tired from driving and did not receive an apology for my RESERVED room not being ready. I had to remind them that I requested a non-smoking room.  When I finally was able to get into my room, I as completely shocked. I had requested a room with 2 full beds which is what I got but it was so small that the beds were almost touching. The room should have been a 1 bed room due to its size. The rooms were supposed to be updated and modern but the television was an outdated motel. The bathroom was dirty as if they had cleaned it in a hurry. I found a pubic hair on my bed so that was an indication that the bedding had not been removed and washed. The room was supposed to be non-smoking but someone had been smoking in the room and housekeeping had tried to cover the smell with cleanser. The smell was so overwhelming that I had an asthma attack. Luckily I had my inhaler in my purse. The pool did not have any...Worst Motel Ever!I made my reservation online at motel6.com just I have always done. I arrived after the initial check-in time by 2 hours, only to be told that my room wasn’t ready, after I had already given all of my information and paid for the room. I had to wait 20 minutes which wasn’t bad but I was tired from driving and did not receive an apology for my RESERVED room not being ready. I had to remind them that I requested a non-smoking room.  When I finally was able to get into my room, I as completely shocked. I had requested a room with 2 full beds which is what I got but it was so small that the beds were almost touching. The room should have been a 1 bed room due to its size. The rooms were supposed to be updated and modern but the television was an outdated motel. The bathroom was dirty as if they had cleaned it in a hurry. I found a pubic hair on my bed so that was an indication that the bedding had not been removed and washed. The room was supposed to be non-smoking but someone had been smoking in the room and housekeeping had tried to cover the smell with cleanser. The smell was so overwhelming that I had an asthma attack. Luckily I had my inhaler in my purse. The pool did not have any water in it which would have been nice to know with a posting either online or from the front desk. The door to my room would not open without pulling at it for several minutes so if a fire had happened, it would have been almost impossible to get out in time. Since I was still under my 6:00 time and had only been in the room for about 30 minutes, I put my luggage back in my car and went to the front desk, requested a refund, checked out and went to another motel. I would definitely not recommend this motel to ANYONE! Along with my problems, there were monthly “residents” living in the motel that were quite unfavorable characters. I found this out when one went in to ask for the monthly rate and then had the pleasure of observing the live-ins. Take my advice, DO NOT STAY HERE! There are other motels and hotels with the same value and much better accommodations.More</t>
   </si>
   <si>
+    <t>Christa B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r230506499-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -758,6 +842,9 @@
     <t>We felt the front desk staff was very friendly to us. However, that's about all that met us to my expectations. Our room was dirty. The tub must have had tub stickies in it at one point, because there was residual ick on the floor of the tub. There is mold on the ceiling of the bathroom as well. My kids enjoyed the pool. It was small, but it did the job. The beds are hard and uncomfortable. I found someone else's hair on my hand towel. We were told that washcloths are a commodity there as guests like to "wash their rims" with them!! Really?This location is directly adjacent to the 91 freeway. So there is a LOT of freeway noise all the time. There is also a lot of noise from other "guests" who seem to actually be living at this Motel 6. I would say find a moderately better place to stay anywhere on Beach Blvd if you plan is to go to Knott's Berry Farm. Also, stay away from motels on orangethorp , most of those places look like they rent by the hour.More</t>
   </si>
   <si>
+    <t>WelcomeMat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r223478521-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -776,6 +863,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Linda B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r216842675-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -797,6 +887,9 @@
     <t>Made reservations on line. Arrived at noon just to assure I would get my room request (smoking).  WOW. The most unorganized front desk I have ever seen. Room not ready. No problem. Shop a bit, get lunch and got back at 1:30 (room still not ready).  I had items that required refrigeration/heating (had no idea these amenities were not included). Relying on a friend for transport. Went back in and told them I would take a non-smoking room.  I just simply wanted to relax. If we put you in a non-smoking room you will have to remain there!!! For the size, rate, dirty, stinky, only 5 watchable TV Channels (kidding right). Couldn't do anything but go to sleep. The only satisfaction came that evening when Brandy E. and Amanda H. could clearly see how upset I was. THEY helped mend a horrific evening for me. Will never return..More</t>
   </si>
   <si>
+    <t>Jeff M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r207434748-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -815,6 +908,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>lindsays17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r197415183-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -830,6 +926,9 @@
     <t>Very busy all night long. You can hear people outside the door all hours if the night. Fairly clean for a motel 6. If your taller than 4 ft the shower won't work well for you...The front desk staff were very nice but the price was much higher than the typical motel 6.</t>
   </si>
   <si>
+    <t>Bella805</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r196943851-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -846,6 +945,9 @@
   </si>
   <si>
     <t>The room was terrible. This was the worst Motel 6 I have ever stayed at! I have stayed at many Motel 6 over the years and have never seen one so bad!!  First of all as soon as I walked in The cigar smelled was so penetrated!.. The room smelled like their were 10 cigar smokers in there at the same time. I asked to be move to another room, my daughter has asmtha so this was not good for her!! But the front desk guy told us they were "all booked"..  Even though, 2 rooms infront of our room were not occupied!  He gave us an air freshener! (What is that going to do!?)  the smelled was so strong that we were unable to sleep!! I so regret staying here! It would of been better sleeping in my car!!  The sheets were dirty, the shower tub was plugged! Not a good area and the motel needs to be updated!!!! I will not go back and defently I will not recommend it...! Overall I give it a 1.. Because zero it's not an option!!! More</t>
+  </si>
+  <si>
+    <t>aztrooper4698</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r192260430-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
@@ -875,6 +977,9 @@
 In the morning, I went to the office and asked for the Manager and the desk clerk would not get them for me. I asked if there was a manager on site and she said there was but wouldn't call them for me. I explained that the night clerk had told me to speak to the...I've stayed at other Motel 6's and they have been good, but this was far from it. We arrived around 10:15 PM ready to get some sleep. We got into our room and it had the stale hotel smell. My youngest son used the bathroom and there was hair hanging on the on the bathroom door. When he washed his hands, the sink wouldn't drain. I called the front desk and the night clerk asked me if we had used anything else in the room, as if she would have moved us to another room if we hadn't. When I told her that my other son had turned the sheets down she said, she was sorry but the hotel was booked solid. Then she said she would not be able to help us and I would need to talk to a manager in the morning. (We ended up washing our hands, faces, and brushing our teeth in the tub while sitting on the toilet. Kinda Gross.) When I went to hang up my pants, there was a used plastic cup on the coat rack.In the morning, I went to the office and asked for the Manager and the desk clerk would not get them for me. I asked if there was a manager on site and she said there was but wouldn't call them for me. I explained that the night clerk had told me to speak to the manager and she still didn't call them for me.In the end, she refunded me $15. I needed to get on the road and didn't feel like arguing with her any longer. Needless to say, I would rather pay more than to stay at this Motel 6 again.More</t>
   </si>
   <si>
+    <t>HOJO-Los-Angeles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r186871346-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -893,6 +998,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>LisaO471</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r177962086-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -917,6 +1025,9 @@
     <t>Forget getting any ice starting Friday afternoon until Monday afternoon. Slow internet that loses connection more than it should, especially since it's not free. Try to get a room away from the stairs.More</t>
   </si>
   <si>
+    <t>Maryann F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r168231871-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -935,6 +1046,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Binaaparkerr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r167854794-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -950,6 +1064,9 @@
     <t>This place is a serious joke. The manager Daniel or David, I believe, Has NO idea how to run a business. The service was terrible and the rooms are dirty. There are burn marks in the sheets and on the floor. If you want extra pillows or blankets, You have to walk to the front desk yourself. The manager should honestly be replaced because he is beyond rude and was very childish when confronted about poor service. The one in Stanton is much cleaner and was $15 cheaper for the same day and was way more convieniently located by more restaurant choices. Highly recommend Stanton over Buena Park.</t>
   </si>
   <si>
+    <t>BayArea_CA945</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r167683709-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -968,6 +1085,9 @@
     <t>Your front desk staff was wonderful.  The motel itself was frightening.  There was a fight in the parking lot when we arrived.  We, being myself and my 12 year old daughter.  I went to get ice and was approached by a woman asking to use my cell phone to call "Ed to bring flour." Obviously there is not cake baking apparatus, let alone a coffee machine in any room. The smell of marijuana was permeating.  People weren't just smoking it in their rooms, but outside and with their doors open. Even after your loudspeaker announcement which was comparable to being on a cell block stating that people shouldn't be loitering if they weren't residents, people remained outside smoking and wandering about.  I was charged $30 for my stay, even though I left after two hours, didn't turn down a bed or use anything in the room.  Tom Bodett may leave the lights on, but as far as I'm concerned; lights out!  I should have been refunded my entire couple hours stay.  Not only for the hotel being frightening; but for the fact I then had to find somewhere else to stay at 11:00 pm.  If you need a place to stay with a pet or on a restricted budget, honestly you are better off at a KOA.More</t>
   </si>
   <si>
+    <t>UkWorldtraveler48</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r159977354-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -986,6 +1106,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Dunebuggy4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r152758928-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1004,6 +1127,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>love2travelbigtime</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r149029634-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1023,6 +1149,9 @@
   </si>
   <si>
     <t>This hotel is right of of the interstate so ask for a room not facing the freeway.  We had to move rooms as the first room stunk.  They allow pets here, but they do not clean the rooms properly afterward and the smell is very strong.  Also, as people walk their pets early in the morning we were woken up by barking dogs.  I am a pet lover and have several of my own, but you need to know what your in for.  While we were there a women left the motel because she had fleas in her room. (Luckily, this was not one of our problems.) The room was OK, but not totally clean.  There was a bug in the light switch in the bathroom and the room smelled musty.  I personally would not stay here again.More</t>
+  </si>
+  <si>
+    <t>suntangirl2006</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r124698199-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
@@ -1048,6 +1177,9 @@
 The room was clean and in good repair.  The pillows were very flat and the comforter was very thin, not what I would normally prefer. There was enough counter space for all my toiletries and hers.   There was a Jack In The Box next to the property, this made breakfast easy.  There was a Target nearby, which was a lifesaver since I forgot to bring something I needed.  I never felt unsafe at any time.  My friend picked me up from LAX and did all the driving, but as far as I remember it was probably 20 minutes to Disneyland.  It is definitely not fancy, but on a tight budget it was suitable and I got a much needed weekend away.  It also helps to live near an airport that offers budget direct flights to LAX, and a friend who qualifies for the southern California resident rates at Disney!  Next time I would prefer staying on the resort property or adjacent to it so we can go back to the room to rest during the afternoon. I also recommend to anyone with seasonal allergies to...I stayed at this property in March of 2011.  I was overdue for some kind of vacation and a friend of mine was temporarily living in Buena Park.  She generously offered to let me stay a few nights with her and she was staying at this location while looking for a permenant place to live. The room was clean and in good repair.  The pillows were very flat and the comforter was very thin, not what I would normally prefer. There was enough counter space for all my toiletries and hers.   There was a Jack In The Box next to the property, this made breakfast easy.  There was a Target nearby, which was a lifesaver since I forgot to bring something I needed.  I never felt unsafe at any time.  My friend picked me up from LAX and did all the driving, but as far as I remember it was probably 20 minutes to Disneyland.  It is definitely not fancy, but on a tight budget it was suitable and I got a much needed weekend away.  It also helps to live near an airport that offers budget direct flights to LAX, and a friend who qualifies for the southern California resident rates at Disney!  Next time I would prefer staying on the resort property or adjacent to it so we can go back to the room to rest during the afternoon. I also recommend to anyone with seasonal allergies to make sure and pack your preferred medications!  When I got there, the pollen was just as bad as it was at home in Oregon.  And I had a difficult time finding the appropriate medication at Disney.  Once I did it was considerably more expensive.More</t>
   </si>
   <si>
+    <t>Caitlyn O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r123674827-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1066,6 +1198,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>jeremiah c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r122740670-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1087,6 +1222,9 @@
     <t>Check in was a breeze the gal at the front desk was very helpful. We needed 2 rooms 1 smoking 1 non smoking at check in there were no smoking rooms ready so the gal at the front desk told us it would be about an hour and radioed the house keeper and asked her to get one smoking rooms ready for us as we were about 2 hours early. As soon as we walked into our non smoking room there was a strong smell of wet dog mixed with animal urine but after being in the room a little bit the smell diminished.The bathroom was clean and bright but also had a dank smell and the shower had low water pressure compared to my parents room. I was surprised that they charged for Wi-Fi as I thought that was a standard feature in hotels now a days. For January the weather was a beautiful 85 degrees but our AC unit only blew room temperature air. While inspecting the AC unit I found that something had chewed thru the power cord leaving exposed wire less than a foot from my kids bed. As soon as i wiggled the cord it sparked and popped the breaker.Both rooms had a clean and neat appearance but everything was old and worn. At some point one of the long term tenet threw there bedding into the the walkway and it was left there for...Check in was a breeze the gal at the front desk was very helpful. We needed 2 rooms 1 smoking 1 non smoking at check in there were no smoking rooms ready so the gal at the front desk told us it would be about an hour and radioed the house keeper and asked her to get one smoking rooms ready for us as we were about 2 hours early. As soon as we walked into our non smoking room there was a strong smell of wet dog mixed with animal urine but after being in the room a little bit the smell diminished.The bathroom was clean and bright but also had a dank smell and the shower had low water pressure compared to my parents room. I was surprised that they charged for Wi-Fi as I thought that was a standard feature in hotels now a days. For January the weather was a beautiful 85 degrees but our AC unit only blew room temperature air. While inspecting the AC unit I found that something had chewed thru the power cord leaving exposed wire less than a foot from my kids bed. As soon as i wiggled the cord it sparked and popped the breaker.Both rooms had a clean and neat appearance but everything was old and worn. At some point one of the long term tenet threw there bedding into the the walkway and it was left there for a couple of hours.The pros of this hotel is it is a convenient location for getting to Knotts Berry Farm and other tourist  locations and there are no less than 6 different restaurants within a block and easy freeway access and tons of parking.I believe this is a pet friendly motel as i saw a cat setting in a window and there were signs telling people where to take there pets to use the bathroom.  Ive paid a lot more for a lot less and for this reason I would probably stay here again.More</t>
   </si>
   <si>
+    <t>mommaof3Tulare_CA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r115779855-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1108,6 +1246,9 @@
     <t>Reserved non smoking but as soon as we opened the door it reeked of cigarette and urine. The carpet was filthy as were the walls. Everything was outdated and grungy. The walkways were filthy and there were cigarette buttts evrywhere. The long term guest were hanging out all over the premises. People sitting on the stairs smoking and didn't bother to move as we were carrying our luggage upstairs to the 2nd floor. It was extremely loud at nigt with people yelling and stomping up and down the hallways. Last time I checked the time before I went to sleep it was 3:30 am and i was up by 6:00 am getting the family ready so we could check out.More</t>
   </si>
   <si>
+    <t>lillyfire80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r114970488-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1129,6 +1270,9 @@
     <t>Yes, you get what you pay for and for $50 a night I suppose it was fine.  No roaches on our visit.  The "nonsmoking room" had the nonsmoking sign on the door, but an ashtray in the room and smelled very perfumey.  But not stale smoky.   We got used to the smell.  Very cramped, but all we needed was a place to sleep.  On another site this came up as very close to Disneyland.  Perhaps as the bird flies.  It took 30 minutes to drive there.  30 minutes to drive, 10 minutes to check in, etc put us in our room almost an hour after we left the park.  We were just too tired for that much extra time.  I wish we'd stayed closer.  On the upside, there is a security guard and a Starbucks on the way to Disneyland in the morning.   And, of course, the towels were very... exfoliating.   Expected for a budget place.  But I'll try to find a different bargain hotel next time.More</t>
   </si>
   <si>
+    <t>carlen_rose</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r45849957-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1150,6 +1294,9 @@
     <t>Room was pretty cramped and the carpeting looked really dirty.  It looked so dirty, that I made sure my shoes were by the bedside in case I needed to get up in the middle of the night.  The shower head was extremely low and there was no way to adjust it.  We were locked out of our room two times in a stay that lasted from 10/1/09 - 10/3/09.  The night of 10/3/09 I saw a roach on the headboard.  That was it, I checked out.  There was no way I could sleep like that.  Ugh.  When we checked out the night shift manager admitted to knowing of the roach infestation, especially on the 1st floor, which is where I was.  I'm so disgusted that this place is fully aware of this infestation and continues to take money from customers and rent roach infested rooms.  I'd never stay here ever again.More</t>
   </si>
   <si>
+    <t>mamadogCO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r21410875-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1171,6 +1318,9 @@
     <t>We spent 1 night at the Buena Park, CA Motel 6 and that was more than enough. The main problem were the cockroaches. I managed to kill all I found and only hope none got in our luggage.The carpet in the traffic areas had not been maintained - cleaned or even swept - there were footprints leading from the door to the bed indicating someone had stepped in something - looked like oil - and tracked it in. The edges of the carpet were thick with accumulated dust and dirt.The bathroom was clean, however, the stool leaked and periodically flushed itself -all night.Our room was very noisy and I would recommend asking for a room away from the elevator, vending and ice machines.More</t>
   </si>
   <si>
+    <t>pittsburghbenny</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r14657508-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1189,6 +1339,9 @@
     <t>March 2008</t>
   </si>
   <si>
+    <t>AndeaAnderson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r8260950-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
   </si>
   <si>
@@ -1208,6 +1361,9 @@
   </si>
   <si>
     <t>you get what you pay for here. stayed to be near knotts berry farm. when we got there it was really hot inside the room. took 24 hours to cool off, no other rooms available on first floor so we stuck it out. we also had problems with room key being disabled; it was on the second evening of a two-evening stay. we'd come back from knotts berry farm hot and tired only to find we were locked out. pool is fairly small and got crowded fast. they do not police the "kids must be accompanied by adults" rule, so lots of parents just watched from their rooms (which means the kids got out of hand fast). but all in all we'd stay there again for the price and convenience.More</t>
+  </si>
+  <si>
+    <t>travlingal05</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r5448350-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
@@ -1232,6 +1388,9 @@
 Our room was relatively clean. We didn't use the blanket or comforter because they didn't look all that fresh, but the sheets were clean. Bathroom had recently been "renovated" and thus was acceptable. Since we were moving, we had our dog with us and the fact that he could stay with us for no additional charge was a big plus. 
 The location of this particular Motel 6 seemed relatively safe. I did see a Buena Park police car cruise the parking lot on two occasions, but it didn't appear that they were stopping, just performing regular patrol. There is a Jack In the Box and an El Toritos in the same parking lot. The JITB was a bit sketchy but we did eat at El Toritos one night. 
 The hotel...We stayed at the Motel 6 in Buena Park from July 3-8, 2006. We were visiting Disneyland on our way down the coast for the purpose of moving. Since the trip was not originally intended as a vacation, we were excited to find that we could stay at the Motel 6 for less than $50/night, thus allowing us to see Disneyland. The cost is the best thing about this place. Second best was the fact that it is 8 miles from Disney. Though it is a bit farther than we would have liked, we were able to get to the park early, leave midday and come back in the evening. Our room was relatively clean. We didn't use the blanket or comforter because they didn't look all that fresh, but the sheets were clean. Bathroom had recently been "renovated" and thus was acceptable. Since we were moving, we had our dog with us and the fact that he could stay with us for no additional charge was a big plus. The location of this particular Motel 6 seemed relatively safe. I did see a Buena Park police car cruise the parking lot on two occasions, but it didn't appear that they were stopping, just performing regular patrol. There is a Jack In the Box and an El Toritos in the same parking lot. The JITB was a bit sketchy but we did eat at El Toritos one night. The hotel is directly off of the 91, so noise could be a problem in the outward facing rooms, but not in ours which faced the interior of the hotel and the pool. We did not use the pool because it was very cloudy looking and there were lots of kids in it. If cloudy, kid filled pools don't bother you, bring your own beach towels. They don't provide any and I'm sure they'll be useful in place of the room towels provided which are very small and thin. Overall, I'd recommend this Motel 6 for budget travelers who aren't looking for anything more than a place to sleep and for pet owners traveling in the area.More</t>
+  </si>
+  <si>
+    <t>LittleLyssa</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32122-d243900-r4147253-Motel_6_Buena_Park_Knotts_Berry_Farm_Disneyland-Buena_Park_California.html</t>
@@ -1751,43 +1910,47 @@
       <c r="A2" t="n">
         <v>26344</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1801,50 +1964,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>26344</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1856,56 +2023,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>26344</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1919,50 +2090,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>26344</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1978,56 +2153,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>26344</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2039,56 +2218,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>26344</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2100,56 +2283,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>26344</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2161,56 +2348,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>26344</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2230,50 +2421,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>26344</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2293,50 +2488,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>26344</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2350,50 +2549,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>26344</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2413,50 +2616,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>26344</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2468,56 +2675,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>26344</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="O14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2531,50 +2742,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>26344</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="O15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2592,41 +2807,45 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>26344</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
@@ -2645,50 +2864,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>26344</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2702,50 +2925,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>26344</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="O18" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2759,50 +2986,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>26344</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="O19" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2816,50 +3047,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>26344</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2873,50 +3108,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>26344</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2930,50 +3169,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>26344</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>200</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="K22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="O22" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2989,56 +3232,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="X22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="Y22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>26344</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>210</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="J23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -3056,56 +3303,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="X23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="Y23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>26344</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3119,50 +3370,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>26344</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>228</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="J25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="K25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3174,56 +3429,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="X25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="Y25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>26344</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>238</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="J26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3241,50 +3500,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>26344</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>245</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="J27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="K27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="O27" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -3304,50 +3567,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>26344</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>253</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="J28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="K28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="O28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3365,41 +3632,45 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>26344</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>261</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="J29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="K29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
@@ -3418,50 +3689,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>26344</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>268</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="J30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="K30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3479,50 +3754,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>26344</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>275</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="J31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="K31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="O31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3540,50 +3819,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>26344</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>283</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="J32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="K32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3597,41 +3880,45 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>26344</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>290</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="J33" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="K33" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
@@ -3660,41 +3947,45 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>26344</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>296</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="J34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="K34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
@@ -3723,50 +4014,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>26344</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>303</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="J35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="K35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3790,50 +4085,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>26344</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>311</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="J36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="K36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="O36" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3857,50 +4156,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>26344</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>318</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="J37" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="K37" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="L37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="O37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -3922,56 +4225,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="X37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="Y37" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>26344</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>327</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="J38" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="K38" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -3995,41 +4302,45 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>26344</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>334</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="J39" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="K39" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="L39" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
@@ -4058,50 +4369,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>26344</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>340</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="J40" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="K40" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="L40" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -4125,50 +4440,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>26344</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>347</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="J41" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="K41" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="O41" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4182,50 +4501,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>26344</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>354</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="J42" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="K42" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="L42" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="O42" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4249,50 +4572,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>26344</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>361</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="J43" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="K43" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="L43" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -4316,50 +4643,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>26344</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>369</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="J44" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="K44" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="L44" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="O44" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4373,50 +4704,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>26344</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>377</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="J45" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="K45" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="L45" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="O45" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4440,50 +4775,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>26344</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>384</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="J46" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="K46" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="L46" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="O46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4507,50 +4846,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>26344</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>392</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="J47" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="K47" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="L47" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="O47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -4570,50 +4913,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>26344</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>400</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="J48" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="K48" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="L48" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="O48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -4633,50 +4980,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>26344</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>408</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="J49" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="K49" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="L49" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="O49" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -4700,50 +5051,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>26344</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>416</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="J50" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="K50" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="L50" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="O50" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P50" t="n">
         <v>2</v>
@@ -4767,50 +5122,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>26344</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>424</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="J51" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="K51" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="L51" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
         <v>2</v>
@@ -4834,50 +5193,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>26344</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>431</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="J52" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="K52" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="L52" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="O52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -4901,41 +5264,45 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>26344</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>439</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="J53" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="K53" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="L53" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
@@ -4962,41 +5329,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>26344</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>446</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="J54" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="K54" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="L54" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
@@ -5015,7 +5386,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
